--- a/capiq_data/in_process_data/IQ384779.xlsx
+++ b/capiq_data/in_process_data/IQ384779.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97661835-7AC3-4986-B762-A5688C6F135A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92A6230-E44A-406E-B9CA-4D0B5923E61C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"dc26bc47-4e94-4e76-be3c-70573d22a3f6"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3a92d224-1e62-4bab-aa1c-2d76522547d7"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>175.2</v>
+        <v>68.953999999999994</v>
       </c>
       <c r="D2">
-        <v>1028.5</v>
+        <v>428.45100000000002</v>
       </c>
       <c r="E2">
-        <v>938.1</v>
+        <v>685.18700000000001</v>
       </c>
       <c r="F2">
-        <v>400.2</v>
+        <v>171.239</v>
       </c>
       <c r="G2">
-        <v>4274.5</v>
+        <v>1588.922</v>
       </c>
       <c r="H2">
-        <v>20444.099999999999</v>
+        <v>4410.08</v>
       </c>
       <c r="I2">
-        <v>302.5</v>
+        <v>49.976999999999997</v>
       </c>
       <c r="J2">
-        <v>1315.7</v>
+        <v>960.02300000000002</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.4529999999999994</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3264.5</v>
+        <v>759.423</v>
       </c>
       <c r="O2">
-        <v>11083.2</v>
+        <v>2280.0790000000002</v>
       </c>
       <c r="P2">
-        <v>1315.7</v>
+        <v>975.31500000000005</v>
       </c>
       <c r="Q2">
-        <v>76.400000000000006</v>
+        <v>78.265000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>5617</v>
+        <v>8259</v>
       </c>
       <c r="T2">
-        <v>9360.9</v>
+        <v>2130.0010000000002</v>
       </c>
       <c r="U2">
-        <v>740.5</v>
+        <v>284.42500000000001</v>
       </c>
       <c r="V2">
-        <v>3.7</v>
+        <v>155.44900000000001</v>
       </c>
       <c r="W2">
-        <v>-51.6</v>
+        <v>-27.119</v>
       </c>
       <c r="X2">
-        <v>-235.4</v>
+        <v>130.78299999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>389.6</v>
+        <v>9.3819999999999997</v>
       </c>
       <c r="AA2">
-        <v>175.2</v>
+        <v>68.953999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>177.5</v>
+        <v>57.64</v>
       </c>
       <c r="D3">
-        <v>1027.3</v>
+        <v>427.27699999999999</v>
       </c>
       <c r="E3">
-        <v>1304.5</v>
+        <v>706.52499999999998</v>
       </c>
       <c r="F3">
-        <v>396.9</v>
+        <v>146.26</v>
       </c>
       <c r="G3">
-        <v>4528.8</v>
+        <v>1017.8</v>
       </c>
       <c r="H3">
-        <v>21138.6</v>
+        <v>3774.377</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1332.7</v>
+        <v>784.80700000000002</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-184.089</v>
       </c>
       <c r="N3">
-        <v>3423.1</v>
+        <v>773.11400000000003</v>
       </c>
       <c r="O3">
-        <v>11725.4</v>
+        <v>1622.5409999999999</v>
       </c>
       <c r="P3">
-        <v>1332.7</v>
+        <v>784.80700000000002</v>
       </c>
       <c r="Q3">
-        <v>-268.60000000000002</v>
+        <v>-187.80500000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>6191</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9413.2000000000007</v>
+        <v>2151.8359999999998</v>
       </c>
       <c r="U3">
-        <v>471.9</v>
+        <v>204.73699999999999</v>
       </c>
       <c r="V3">
-        <v>-105.1</v>
+        <v>45.31</v>
       </c>
       <c r="W3">
-        <v>-51.6</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-208.8</v>
+        <v>-180.98</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>74.2</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="AA3">
-        <v>177.5</v>
+        <v>57.64</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>183</v>
+        <v>48.320999999999998</v>
       </c>
       <c r="D4">
-        <v>1070</v>
+        <v>426.27499999999998</v>
       </c>
       <c r="E4">
-        <v>1139.3</v>
+        <v>637.45699999999999</v>
       </c>
       <c r="F4">
-        <v>409.9</v>
+        <v>147.32</v>
       </c>
       <c r="G4">
-        <v>4458.7</v>
+        <v>983.024</v>
       </c>
       <c r="H4">
-        <v>20915.599999999999</v>
+        <v>3906.4720000000002</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1368.6</v>
+        <v>895.18799999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3364.6</v>
+        <v>633.43100000000004</v>
       </c>
       <c r="O4">
-        <v>11717.8</v>
+        <v>1675.002</v>
       </c>
       <c r="P4">
-        <v>1583.7</v>
+        <v>895.18799999999999</v>
       </c>
       <c r="Q4">
-        <v>149.6</v>
+        <v>190.84100000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>6189</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>9197.7999999999993</v>
+        <v>2231.4699999999998</v>
       </c>
       <c r="U4">
-        <v>621.5</v>
+        <v>227.16499999999999</v>
       </c>
       <c r="V4">
-        <v>251.1</v>
+        <v>130.875</v>
       </c>
       <c r="W4">
-        <v>-56.9</v>
+        <v>-47.985999999999997</v>
       </c>
       <c r="X4">
-        <v>-300.7</v>
+        <v>48.731000000000002</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>216.7</v>
+        <v>-2.1880000000000002</v>
       </c>
       <c r="AA4">
-        <v>183</v>
+        <v>48.320999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>166.9</v>
+        <v>25.323</v>
       </c>
       <c r="D5">
-        <v>997.8</v>
+        <v>387.55</v>
       </c>
       <c r="E5">
-        <v>1037</v>
+        <v>644.904</v>
       </c>
       <c r="F5">
-        <v>377.9</v>
+        <v>123.084</v>
       </c>
       <c r="G5">
-        <v>3982.4</v>
+        <v>969.17200000000003</v>
       </c>
       <c r="H5">
-        <v>19737.8</v>
+        <v>4110.5739999999996</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1174.5999999999999</v>
+        <v>918.33199999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3113.2</v>
+        <v>739.29300000000001</v>
       </c>
       <c r="O5">
-        <v>10770.3</v>
+        <v>1834.175</v>
       </c>
       <c r="P5">
-        <v>1389.7</v>
+        <v>918.33199999999999</v>
       </c>
       <c r="Q5">
-        <v>135.5</v>
+        <v>-123.31699999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>6192</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>8967.5</v>
+        <v>2276.3989999999999</v>
       </c>
       <c r="U5">
-        <v>757</v>
+        <v>220.179</v>
       </c>
       <c r="V5">
-        <v>496</v>
+        <v>199.40700000000001</v>
       </c>
       <c r="W5">
-        <v>-56.5</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="X5">
-        <v>-465.8</v>
+        <v>58.996000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>131.19999999999999</v>
+        <v>-27.905999999999999</v>
       </c>
       <c r="AA5">
-        <v>166.9</v>
+        <v>25.323</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>202.3</v>
+        <v>23.518999999999998</v>
       </c>
       <c r="D6">
-        <v>997.1</v>
+        <v>378.745</v>
       </c>
       <c r="E6">
-        <v>868.8</v>
+        <v>556.29200000000003</v>
       </c>
       <c r="F6">
-        <v>201.9</v>
+        <v>106.696</v>
       </c>
       <c r="G6">
-        <v>3834.1</v>
+        <v>1314.989</v>
       </c>
       <c r="H6">
-        <v>19347</v>
+        <v>4448.8950000000004</v>
       </c>
       <c r="I6">
-        <v>272.60000000000002</v>
+        <v>38.014000000000003</v>
       </c>
       <c r="J6">
-        <v>1069.5999999999999</v>
+        <v>844.28499999999997</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.561999999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,161 +1224,161 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2974.4</v>
+        <v>1151.172</v>
       </c>
       <c r="O6">
-        <v>10209.4</v>
+        <v>2167.431</v>
       </c>
       <c r="P6">
-        <v>1284.7</v>
+        <v>980.67499999999995</v>
       </c>
       <c r="Q6">
-        <v>-29.6</v>
+        <v>86.951999999999998</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>6162</v>
+        <v>8519</v>
       </c>
       <c r="T6">
-        <v>9137.6</v>
+        <v>2281.4639999999999</v>
       </c>
       <c r="U6">
-        <v>727.4</v>
+        <v>143.66800000000001</v>
       </c>
       <c r="V6">
-        <v>322.8</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="W6">
-        <v>-55.9</v>
+        <v>-34.554000000000002</v>
       </c>
       <c r="X6">
-        <v>-346.8</v>
+        <v>3.923</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>52.1</v>
+        <v>111.16</v>
       </c>
       <c r="AA6">
-        <v>202.3</v>
+        <v>23.518999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>193.9</v>
+        <v>30.803000000000001</v>
       </c>
       <c r="D7">
-        <v>1008</v>
+        <v>377.74900000000002</v>
       </c>
       <c r="E7">
-        <v>1165.7</v>
+        <v>1025.568</v>
       </c>
       <c r="F7">
-        <v>389.1</v>
+        <v>104.848</v>
       </c>
       <c r="G7">
-        <v>4014.4</v>
+        <v>1390.989</v>
       </c>
       <c r="H7">
-        <v>19329.400000000001</v>
+        <v>4487.2060000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>777.1</v>
+        <v>760.03599999999994</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-9.4870000000000001</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-87.063000000000002</v>
       </c>
       <c r="N7">
-        <v>3374.5</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10195.4</v>
+        <v>2193.9119999999998</v>
       </c>
       <c r="P7">
-        <v>1325.7</v>
+        <v>760.03599999999994</v>
       </c>
       <c r="Q7">
-        <v>-135.1</v>
+        <v>-11.513</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>6153</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>9134</v>
+        <v>2293.2939999999999</v>
       </c>
       <c r="U7">
-        <v>592.29999999999995</v>
+        <v>339.46499999999997</v>
       </c>
       <c r="V7">
-        <v>-158.30000000000001</v>
+        <v>83.501000000000005</v>
       </c>
       <c r="W7">
-        <v>-55.7</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>179</v>
+        <v>-96.55</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-141.80000000000001</v>
+        <v>-2.81</v>
       </c>
       <c r="AA7">
-        <v>193.9</v>
+        <v>30.803000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>153.9</v>
+        <v>14.91</v>
       </c>
       <c r="D8">
-        <v>981.8</v>
+        <v>368.93599999999998</v>
       </c>
       <c r="E8">
-        <v>885.5</v>
+        <v>1029.376</v>
       </c>
       <c r="F8">
-        <v>377.9</v>
+        <v>108.11499999999999</v>
       </c>
       <c r="G8">
-        <v>3673</v>
+        <v>1416.566</v>
       </c>
       <c r="H8">
-        <v>18612.900000000001</v>
+        <v>4546.32</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1008.1</v>
+        <v>755.06299999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2724.7</v>
+        <v>885.23900000000003</v>
       </c>
       <c r="O8">
-        <v>9494.1</v>
+        <v>2236.415</v>
       </c>
       <c r="P8">
-        <v>1341.6</v>
+        <v>755.06299999999999</v>
       </c>
       <c r="Q8">
-        <v>126.1</v>
+        <v>6.77</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>6141</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>9118.7999999999993</v>
+        <v>2309.9050000000002</v>
       </c>
       <c r="U8">
-        <v>718.4</v>
+        <v>346.23500000000001</v>
       </c>
       <c r="V8">
-        <v>405.5</v>
+        <v>81.715000000000003</v>
       </c>
       <c r="W8">
-        <v>-78</v>
+        <v>-54.646000000000001</v>
       </c>
       <c r="X8">
-        <v>-252.1</v>
+        <v>25.149000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-2.9</v>
+        <v>-58.494999999999997</v>
       </c>
       <c r="AA8">
-        <v>153.9</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>170.6</v>
+        <v>12.24</v>
       </c>
       <c r="D9">
-        <v>1013.9</v>
+        <v>307.47899999999998</v>
       </c>
       <c r="E9">
-        <v>1002.1</v>
+        <v>847.327</v>
       </c>
       <c r="F9">
-        <v>306.39999999999998</v>
+        <v>83.135999999999996</v>
       </c>
       <c r="G9">
-        <v>4160.7</v>
+        <v>1337.057</v>
       </c>
       <c r="H9">
-        <v>17861</v>
+        <v>4410.2349999999997</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>951.6</v>
+        <v>568.49199999999996</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3184.3</v>
+        <v>805.06100000000004</v>
       </c>
       <c r="O9">
-        <v>8663.6</v>
+        <v>2053.681</v>
       </c>
       <c r="P9">
-        <v>1285.0999999999999</v>
+        <v>791.95399999999995</v>
       </c>
       <c r="Q9">
-        <v>161.69999999999999</v>
+        <v>122.143</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>6101</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>9197.4</v>
+        <v>2356.5540000000001</v>
       </c>
       <c r="U9">
-        <v>880.1</v>
+        <v>214.154</v>
       </c>
       <c r="V9">
-        <v>70.5</v>
+        <v>236.98500000000001</v>
       </c>
       <c r="W9">
-        <v>-77.8</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-144.30000000000001</v>
+        <v>-118.455</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>237.2</v>
+        <v>25.382999999999999</v>
       </c>
       <c r="AA9">
-        <v>170.6</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>158.69999999999999</v>
+        <v>-41.06</v>
       </c>
       <c r="D10">
-        <v>1046.7</v>
+        <v>291.09899999999999</v>
       </c>
       <c r="E10">
-        <v>999.5</v>
+        <v>446.59100000000001</v>
       </c>
       <c r="F10">
-        <v>417.2</v>
+        <v>70.825999999999993</v>
       </c>
       <c r="G10">
-        <v>8261</v>
+        <v>1149.8530000000001</v>
       </c>
       <c r="H10">
-        <v>17492.400000000001</v>
+        <v>4137.6270000000004</v>
       </c>
       <c r="I10">
-        <v>287.89999999999998</v>
+        <v>22.626000000000001</v>
       </c>
       <c r="J10">
-        <v>1186</v>
+        <v>595.6</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.157</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,161 +1556,161 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1236.2</v>
+        <v>1139.3050000000001</v>
       </c>
       <c r="O10">
-        <v>8443.4</v>
+        <v>1854.1389999999999</v>
       </c>
       <c r="P10">
-        <v>1186</v>
+        <v>822.846</v>
       </c>
       <c r="Q10">
-        <v>-44.6</v>
+        <v>-117.31699999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>6128</v>
+        <v>7581</v>
       </c>
       <c r="T10">
-        <v>9049</v>
+        <v>2283.4879999999998</v>
       </c>
       <c r="U10">
-        <v>835.5</v>
+        <v>170.45500000000001</v>
       </c>
       <c r="V10">
-        <v>501.6</v>
+        <v>-81.239999999999995</v>
       </c>
       <c r="W10">
-        <v>-77.5</v>
+        <v>-40.454999999999998</v>
       </c>
       <c r="X10">
-        <v>-428.5</v>
+        <v>42.021000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-55.4</v>
+        <v>-1.4</v>
       </c>
       <c r="AA10">
-        <v>158.69999999999999</v>
+        <v>-41.06</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>222.2</v>
+        <v>-3.69</v>
       </c>
       <c r="D11">
-        <v>1112.2</v>
+        <v>270.798</v>
       </c>
       <c r="E11">
-        <v>1458.9</v>
+        <v>887.69899999999996</v>
       </c>
       <c r="F11">
-        <v>360.5</v>
+        <v>59.216999999999999</v>
       </c>
       <c r="G11">
-        <v>4903.5</v>
+        <v>1350.046</v>
       </c>
       <c r="H11">
-        <v>18534.5</v>
+        <v>4307.2569999999996</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1514.5</v>
+        <v>675.1</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-5.2240000000000002</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3287.6</v>
+        <v>1238.2570000000001</v>
       </c>
       <c r="O11">
-        <v>9695.2999999999993</v>
+        <v>2033.8530000000001</v>
       </c>
       <c r="P11">
-        <v>1514.5</v>
+        <v>904.11</v>
       </c>
       <c r="Q11">
-        <v>49.2</v>
+        <v>36.656999999999996</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>6132</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>8839.2000000000007</v>
+        <v>2273.404</v>
       </c>
       <c r="U11">
-        <v>884.7</v>
+        <v>230.21</v>
       </c>
       <c r="V11">
-        <v>-484.6</v>
+        <v>-13.01</v>
       </c>
       <c r="W11">
-        <v>-77.2</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>418.8</v>
+        <v>62.633000000000003</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>164.5</v>
+        <v>1.012</v>
       </c>
       <c r="AA11">
-        <v>222.2</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>202.6</v>
+        <v>-33.899000000000001</v>
       </c>
       <c r="D12">
-        <v>1135.5</v>
+        <v>281.79599999999999</v>
       </c>
       <c r="E12">
-        <v>1516.3</v>
+        <v>915.053</v>
       </c>
       <c r="F12">
-        <v>376.8</v>
+        <v>74.653999999999996</v>
       </c>
       <c r="G12">
-        <v>5018.7</v>
+        <v>1295.3630000000001</v>
       </c>
       <c r="H12">
-        <v>18138.599999999999</v>
+        <v>4184.2640000000001</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1445.6</v>
+        <v>688.1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3429.7</v>
+        <v>1168.7829999999999</v>
       </c>
       <c r="O12">
-        <v>9384.6</v>
+        <v>1951.817</v>
       </c>
       <c r="P12">
-        <v>1651.6</v>
+        <v>760.48900000000003</v>
       </c>
       <c r="Q12">
-        <v>31.5</v>
+        <v>-84.715999999999994</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>5818</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>8754</v>
+        <v>2232.4470000000001</v>
       </c>
       <c r="U12">
-        <v>916.2</v>
+        <v>134.78899999999999</v>
       </c>
       <c r="V12">
-        <v>740.2</v>
+        <v>97.614999999999995</v>
       </c>
       <c r="W12">
-        <v>-101.2</v>
+        <v>-52.978000000000002</v>
       </c>
       <c r="X12">
-        <v>-479.6</v>
+        <v>-163.19800000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-201.4</v>
+        <v>4.6420000000000003</v>
       </c>
       <c r="AA12">
-        <v>202.6</v>
+        <v>-33.899000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>228.1</v>
+        <v>16.55</v>
       </c>
       <c r="D13">
-        <v>1171.8</v>
+        <v>304.25700000000001</v>
       </c>
       <c r="E13">
-        <v>1478.7</v>
+        <v>1000.318</v>
       </c>
       <c r="F13">
-        <v>388.7</v>
+        <v>87.409000000000006</v>
       </c>
       <c r="G13">
-        <v>8165.2</v>
+        <v>1361.443</v>
       </c>
       <c r="H13">
-        <v>18763.5</v>
+        <v>4210.201</v>
       </c>
       <c r="I13">
-        <v>660.3</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1387.6</v>
+        <v>701.83399999999995</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3919.6</v>
+        <v>1164.454</v>
       </c>
       <c r="O13">
-        <v>9644.1</v>
+        <v>1960.037</v>
       </c>
       <c r="P13">
-        <v>1387.6</v>
+        <v>708.63699999999994</v>
       </c>
       <c r="Q13">
-        <v>258.3</v>
+        <v>-17.167000000000002</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>5864</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>9119.4</v>
+        <v>2250.1640000000002</v>
       </c>
       <c r="U13">
-        <v>1174.5</v>
+        <v>179.93700000000001</v>
       </c>
       <c r="V13">
-        <v>334.3</v>
+        <v>77.685000000000002</v>
       </c>
       <c r="W13">
-        <v>-100.8</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-174.7</v>
+        <v>-71.284999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>86.2</v>
+        <v>-4.133</v>
       </c>
       <c r="AA13">
-        <v>228.1</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.758</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>301.21899999999999</v>
       </c>
       <c r="E14">
-        <v>1435.8</v>
+        <v>642.35699999999997</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>89.57</v>
       </c>
       <c r="G14">
-        <v>9955.5</v>
+        <v>1280.8720000000001</v>
       </c>
       <c r="H14">
-        <v>19270.5</v>
+        <v>3952.9119999999998</v>
       </c>
       <c r="I14">
-        <v>334.6</v>
+        <v>53.67</v>
       </c>
       <c r="J14">
-        <v>1588.6</v>
+        <v>730.04100000000005</v>
       </c>
       <c r="K14">
-        <v>35.700000000000003</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1439.5</v>
+        <v>1052.0340000000001</v>
       </c>
       <c r="O14">
-        <v>10293.200000000001</v>
+        <v>1887.721</v>
       </c>
       <c r="P14">
-        <v>1624.3</v>
+        <v>730.26599999999996</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>81.271000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>5932</v>
+        <v>6747</v>
       </c>
       <c r="T14">
-        <v>8977.2999999999993</v>
+        <v>2065.1909999999998</v>
       </c>
       <c r="U14">
-        <v>1343.9</v>
+        <v>318.71300000000002</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>55.616999999999997</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-40.390999999999998</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>25.501999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>3.758</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>187.8</v>
+        <v>47.404000000000003</v>
       </c>
       <c r="D15">
-        <v>1269.5</v>
+        <v>288.27</v>
       </c>
       <c r="E15">
-        <v>2053.3000000000002</v>
+        <v>961.42700000000002</v>
       </c>
       <c r="F15">
-        <v>432.3</v>
+        <v>75.323999999999998</v>
       </c>
       <c r="G15">
-        <v>10902</v>
+        <v>1288.0160000000001</v>
       </c>
       <c r="H15">
-        <v>20346.3</v>
+        <v>4106.0469999999996</v>
       </c>
       <c r="I15">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1588.7</v>
+        <v>710.82899999999995</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-35.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1125.3</v>
+        <v>1049.8689999999999</v>
       </c>
       <c r="O15">
-        <v>11338.9</v>
+        <v>1835.703</v>
       </c>
       <c r="P15">
-        <v>1588.7</v>
+        <v>710.82899999999995</v>
       </c>
       <c r="Q15">
-        <v>-352.5</v>
+        <v>-67.456999999999994</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>6005</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>9007.4</v>
+        <v>2270.3440000000001</v>
       </c>
       <c r="U15">
-        <v>991.1</v>
+        <v>166.529</v>
       </c>
       <c r="V15">
-        <v>-219.2</v>
+        <v>-16.370999999999999</v>
       </c>
       <c r="W15">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>408.3</v>
+        <v>-10.047000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-523.1</v>
+        <v>1.173</v>
       </c>
       <c r="AA15">
-        <v>187.8</v>
+        <v>9.093</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>274.5</v>
+        <v>41.442999999999998</v>
       </c>
       <c r="D16">
-        <v>1289.9000000000001</v>
+        <v>288.83199999999999</v>
       </c>
       <c r="E16">
-        <v>1753.3</v>
+        <v>923.39499999999998</v>
       </c>
       <c r="F16">
-        <v>461.1</v>
+        <v>72.468000000000004</v>
       </c>
       <c r="G16">
-        <v>10303.200000000001</v>
+        <v>1243.723</v>
       </c>
       <c r="H16">
-        <v>19899.5</v>
+        <v>3875.12</v>
       </c>
       <c r="I16">
-        <v>755.6</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1588.9</v>
+        <v>471.14600000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1218.8</v>
+        <v>1255.374</v>
       </c>
       <c r="O16">
-        <v>10421.6</v>
+        <v>1795.895</v>
       </c>
       <c r="P16">
-        <v>1588.9</v>
+        <v>690.721</v>
       </c>
       <c r="Q16">
-        <v>217.3</v>
+        <v>0.377</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>6070</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>9477.9</v>
+        <v>2079.2249999999999</v>
       </c>
       <c r="U16">
-        <v>1209.7</v>
+        <v>251.63300000000001</v>
       </c>
       <c r="V16">
-        <v>769.5</v>
+        <v>75.578000000000003</v>
       </c>
       <c r="W16">
-        <v>-109.1</v>
+        <v>-53.311999999999998</v>
       </c>
       <c r="X16">
-        <v>-139.5</v>
+        <v>-68.135999999999996</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-457.7</v>
+        <v>-2.5579999999999998</v>
       </c>
       <c r="AA16">
-        <v>274.5</v>
+        <v>79.754000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>256</v>
+        <v>-148.44300000000001</v>
       </c>
       <c r="D17">
-        <v>1311</v>
+        <v>280.90699999999998</v>
       </c>
       <c r="E17">
-        <v>1542.3</v>
+        <v>943.46900000000005</v>
       </c>
       <c r="F17">
-        <v>470.6</v>
+        <v>51.485999999999997</v>
       </c>
       <c r="G17">
-        <v>10742.5</v>
+        <v>1340.943</v>
       </c>
       <c r="H17">
-        <v>20081</v>
+        <v>3931.4169999999999</v>
       </c>
       <c r="I17">
-        <v>766.4</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1589.1</v>
+        <v>450.47800000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1306.5</v>
+        <v>1558.0119999999999</v>
       </c>
       <c r="O17">
-        <v>10784.4</v>
+        <v>2074.6469999999999</v>
       </c>
       <c r="P17">
-        <v>1589.1</v>
+        <v>672.31799999999998</v>
       </c>
       <c r="Q17">
-        <v>156.6</v>
+        <v>63.84</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>6155</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>9296.6</v>
+        <v>1856.77</v>
       </c>
       <c r="U17">
-        <v>1370.7</v>
+        <v>200.518</v>
       </c>
       <c r="V17">
-        <v>467.1</v>
+        <v>108.26300000000001</v>
       </c>
       <c r="W17">
-        <v>-108.6</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>207.3</v>
+        <v>-42.262999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-442.9</v>
+        <v>1.996</v>
       </c>
       <c r="AA17">
-        <v>256</v>
+        <v>-148.44300000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>269.8</v>
+        <v>77.985939999999999</v>
       </c>
       <c r="D18">
-        <v>1276.7</v>
+        <v>1113.55476</v>
       </c>
       <c r="E18">
-        <v>1284.2</v>
+        <v>624.00300000000004</v>
       </c>
       <c r="F18">
-        <v>548.6</v>
+        <v>606.58335</v>
       </c>
       <c r="G18">
-        <v>11260.7</v>
+        <v>2349.81</v>
       </c>
       <c r="H18">
-        <v>20450</v>
+        <v>7419.6310000000003</v>
       </c>
       <c r="I18">
-        <v>343.5</v>
+        <v>74.144000000000005</v>
       </c>
       <c r="J18">
-        <v>1576.8</v>
+        <v>1302.1679999999999</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1424.6</v>
+        <v>2326.7869999999998</v>
       </c>
       <c r="O18">
-        <v>11164.7</v>
+        <v>3876.6640000000002</v>
       </c>
       <c r="P18">
-        <v>1576.8</v>
+        <v>1381.644</v>
       </c>
       <c r="Q18">
-        <v>161.6</v>
+        <v>-10.192159999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>6264</v>
+        <v>6693</v>
       </c>
       <c r="T18">
-        <v>9285.2999999999993</v>
+        <v>3542.9670000000001</v>
       </c>
       <c r="U18">
-        <v>1525.6</v>
+        <v>546.928</v>
       </c>
       <c r="V18">
-        <v>183</v>
+        <v>-115.47252</v>
       </c>
       <c r="W18">
-        <v>-108.3</v>
+        <v>-33.554209999999998</v>
       </c>
       <c r="X18">
-        <v>386.4</v>
+        <v>104.07454</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-331.1</v>
+        <v>-3.6706799999999999</v>
       </c>
       <c r="AA18">
-        <v>269.8</v>
+        <v>77.985939999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>259.60000000000002</v>
+        <v>71.078999999999994</v>
       </c>
       <c r="D19">
-        <v>1291.5999999999999</v>
+        <v>710.09900000000005</v>
       </c>
       <c r="E19">
-        <v>1930.5</v>
+        <v>2028.5201999999999</v>
       </c>
       <c r="F19">
-        <v>454.7</v>
+        <v>251.51900000000001</v>
       </c>
       <c r="G19">
-        <v>12874.3</v>
+        <v>2631.5044899999998</v>
       </c>
       <c r="H19">
-        <v>21961.200000000001</v>
+        <v>7487.3920900000003</v>
       </c>
       <c r="I19">
-        <v>824.5</v>
+        <v>2275.83968</v>
       </c>
       <c r="J19">
-        <v>1600.6</v>
+        <v>1216.4646399999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-106.003</v>
       </c>
       <c r="N19">
-        <v>1196.2</v>
+        <v>2356.0589</v>
       </c>
       <c r="O19">
-        <v>12920.8</v>
+        <v>3802.39806</v>
       </c>
       <c r="P19">
-        <v>1600.6</v>
+        <v>1296.6838700000001</v>
       </c>
       <c r="Q19">
-        <v>-294.5</v>
+        <v>-92.965000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>6360</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>9040.4</v>
+        <v>3684.9940299999998</v>
       </c>
       <c r="U19">
-        <v>1239.9000000000001</v>
+        <v>458.20776999999998</v>
       </c>
       <c r="V19">
-        <v>-56.3</v>
+        <v>25.135000000000002</v>
       </c>
       <c r="W19">
-        <v>-108.1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>178.9</v>
+        <v>-105.489</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-343.5</v>
+        <v>-4.4870000000000001</v>
       </c>
       <c r="AA19">
-        <v>259.60000000000002</v>
+        <v>71.078999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>257.3</v>
+        <v>71.269000000000005</v>
       </c>
       <c r="D20">
-        <v>1318.1</v>
+        <v>717.81299999999999</v>
       </c>
       <c r="E20">
-        <v>1654.9</v>
+        <v>860.57366000000002</v>
       </c>
       <c r="F20">
-        <v>476.4</v>
+        <v>257.59399999999999</v>
       </c>
       <c r="G20">
-        <v>13684.2</v>
+        <v>2347.8833</v>
       </c>
       <c r="H20">
-        <v>22898.3</v>
+        <v>7120.4189800000004</v>
       </c>
       <c r="I20">
-        <v>881.3</v>
+        <v>2193.1491900000001</v>
       </c>
       <c r="J20">
-        <v>1597.5</v>
+        <v>1166.6871699999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1356.1</v>
+        <v>2193.1491900000001</v>
       </c>
       <c r="O20">
-        <v>13644.1</v>
+        <v>3611.17731</v>
       </c>
       <c r="P20">
-        <v>1597.5</v>
+        <v>1166.6871699999999</v>
       </c>
       <c r="Q20">
-        <v>246</v>
+        <v>-17.465</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>6431</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>9254.2000000000007</v>
+        <v>3509.2416699999999</v>
       </c>
       <c r="U20">
-        <v>1482</v>
+        <v>429.69245000000001</v>
       </c>
       <c r="V20">
-        <v>514.79999999999995</v>
+        <v>172.84200000000001</v>
       </c>
       <c r="W20">
-        <v>-116.5</v>
+        <v>-74.980999999999995</v>
       </c>
       <c r="X20">
-        <v>-282.89999999999998</v>
+        <v>-174.22399999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-3.9</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="AA20">
-        <v>257.3</v>
+        <v>71.269000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>249.3</v>
+        <v>42.515000000000001</v>
       </c>
       <c r="D21">
-        <v>1273.5</v>
+        <v>302.66399999999999</v>
       </c>
       <c r="E21">
-        <v>1515.2</v>
+        <v>588.51099999999997</v>
       </c>
       <c r="F21">
-        <v>464.6</v>
+        <v>63.966000000000001</v>
       </c>
       <c r="G21">
-        <v>15965.3</v>
+        <v>1664.652</v>
       </c>
       <c r="H21">
-        <v>24962.2</v>
+        <v>4395.7269999999999</v>
       </c>
       <c r="I21">
-        <v>882.4</v>
+        <v>1514.846</v>
       </c>
       <c r="J21">
-        <v>1689.3</v>
+        <v>653.94799999999998</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1453.6</v>
+        <v>1514.846</v>
       </c>
       <c r="O21">
-        <v>15930</v>
+        <v>2318.0129999999999</v>
       </c>
       <c r="P21">
-        <v>1689.3</v>
+        <v>653.94799999999998</v>
       </c>
       <c r="Q21">
-        <v>125</v>
+        <v>167.464</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>6430</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>9032.2000000000007</v>
+        <v>2077.7139999999999</v>
       </c>
       <c r="U21">
-        <v>1605.2</v>
+        <v>407.11399999999998</v>
       </c>
       <c r="V21">
-        <v>97.1</v>
+        <v>147.71199999999999</v>
       </c>
       <c r="W21">
-        <v>-116.2</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>157.4</v>
+        <v>-13.286</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-54</v>
+        <v>-2.4740000000000002</v>
       </c>
       <c r="AA21">
-        <v>249.3</v>
+        <v>42.515000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>201.9</v>
+        <v>7.7917100000000001</v>
       </c>
       <c r="D22">
-        <v>1239.7</v>
+        <v>1359.5057899999999</v>
       </c>
       <c r="E22">
-        <v>1101.3</v>
+        <v>666.2</v>
       </c>
       <c r="F22">
-        <v>493.3</v>
+        <v>645.63802999999996</v>
       </c>
       <c r="G22">
-        <v>16127.6</v>
+        <v>2723.1</v>
       </c>
       <c r="H22">
-        <v>25073.200000000001</v>
+        <v>7584.4</v>
       </c>
       <c r="I22">
-        <v>302.60000000000002</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="J22">
-        <v>2072.8000000000002</v>
+        <v>1212.2</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1524.4</v>
+        <v>2573.4</v>
       </c>
       <c r="O22">
-        <v>16210.2</v>
+        <v>3968.1</v>
       </c>
       <c r="P22">
-        <v>2072.8000000000002</v>
+        <v>1222.2</v>
       </c>
       <c r="Q22">
-        <v>260.7</v>
+        <v>-41.129080000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6490</v>
+        <v>5798</v>
       </c>
       <c r="T22">
-        <v>8863</v>
+        <v>3616.3</v>
       </c>
       <c r="U22">
-        <v>1873.3</v>
+        <v>715.7</v>
       </c>
       <c r="V22">
-        <v>497.9</v>
+        <v>-10.383749999999999</v>
       </c>
       <c r="W22">
-        <v>-113.7</v>
+        <v>-63.62576</v>
       </c>
       <c r="X22">
-        <v>-30.1</v>
+        <v>-0.79886999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-138.9</v>
+        <v>20.83006</v>
       </c>
       <c r="AA22">
-        <v>201.9</v>
+        <v>7.7917100000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>161</v>
+        <v>107.6</v>
       </c>
       <c r="D23">
-        <v>1148.7</v>
+        <v>783</v>
       </c>
       <c r="E23">
-        <v>1471.2</v>
+        <v>1266.1210000000001</v>
       </c>
       <c r="F23">
-        <v>386.3</v>
+        <v>303.7</v>
       </c>
       <c r="G23">
-        <v>13954.2</v>
+        <v>3120.058</v>
       </c>
       <c r="H23">
-        <v>22658.2</v>
+        <v>8000.6779999999999</v>
       </c>
       <c r="I23">
-        <v>670.1</v>
+        <v>2920.8490000000002</v>
       </c>
       <c r="J23">
-        <v>2073.1999999999998</v>
+        <v>873.04499999999996</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="N23">
-        <v>1085.9000000000001</v>
+        <v>3299.8270000000002</v>
       </c>
       <c r="O23">
-        <v>14288.4</v>
+        <v>4375.24</v>
       </c>
       <c r="P23">
-        <v>2073.1999999999998</v>
+        <v>1182.644</v>
       </c>
       <c r="Q23">
-        <v>-396.9</v>
+        <v>-249.3</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>6552</v>
+        <v>5586</v>
       </c>
       <c r="T23">
-        <v>8369.7999999999993</v>
+        <v>3625.4380000000001</v>
       </c>
       <c r="U23">
-        <v>1454.5</v>
+        <v>493.53300000000002</v>
       </c>
       <c r="V23">
-        <v>-32.200000000000003</v>
+        <v>-59.2</v>
       </c>
       <c r="W23">
-        <v>-113</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-249.5</v>
+        <v>-172.7</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-47.9</v>
+        <v>-11.9</v>
       </c>
       <c r="AA23">
-        <v>161</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>225.5</v>
+        <v>117</v>
       </c>
       <c r="D24">
-        <v>1189.4000000000001</v>
+        <v>788.3</v>
       </c>
       <c r="E24">
-        <v>1719.1</v>
+        <v>993.94799999999998</v>
       </c>
       <c r="F24">
-        <v>413.5</v>
+        <v>336.7</v>
       </c>
       <c r="G24">
-        <v>14802.3</v>
+        <v>2895.27</v>
       </c>
       <c r="H24">
-        <v>23502.799999999999</v>
+        <v>7916.7839999999997</v>
       </c>
       <c r="I24">
-        <v>833.8</v>
+        <v>1263.191</v>
       </c>
       <c r="J24">
-        <v>2072.6999999999998</v>
+        <v>977.29499999999996</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1340.5</v>
+        <v>2950.9169999999999</v>
       </c>
       <c r="O24">
-        <v>15460.1</v>
+        <v>4108.8689999999997</v>
       </c>
       <c r="P24">
-        <v>2072.6999999999998</v>
+        <v>1287.04</v>
       </c>
       <c r="Q24">
-        <v>-8.3000000000000007</v>
+        <v>13.4</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>6796</v>
+        <v>5485</v>
       </c>
       <c r="T24">
-        <v>8042.7</v>
+        <v>3807.915</v>
       </c>
       <c r="U24">
-        <v>1446.2</v>
+        <v>487.13900000000001</v>
       </c>
       <c r="V24">
-        <v>245.8</v>
+        <v>24</v>
       </c>
       <c r="W24">
-        <v>-117.6</v>
+        <v>-80.3</v>
       </c>
       <c r="X24">
-        <v>173.3</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-247.7</v>
+        <v>-38.5</v>
       </c>
       <c r="AA24">
-        <v>225.5</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>241.2</v>
+        <v>102</v>
       </c>
       <c r="D25">
-        <v>1201.5999999999999</v>
+        <v>791.3</v>
       </c>
       <c r="E25">
-        <v>1200</v>
+        <v>1160.5999999999999</v>
       </c>
       <c r="F25">
-        <v>423.3</v>
+        <v>298.8</v>
       </c>
       <c r="G25">
-        <v>15519.5</v>
+        <v>3451.5</v>
       </c>
       <c r="H25">
-        <v>24137.7</v>
+        <v>8932.9</v>
       </c>
       <c r="I25">
-        <v>771.7</v>
+        <v>1523.7</v>
       </c>
       <c r="J25">
-        <v>2073.1999999999998</v>
+        <v>957.5</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1374</v>
+        <v>3524.2</v>
       </c>
       <c r="O25">
-        <v>15966.4</v>
+        <v>4844</v>
       </c>
       <c r="P25">
-        <v>2073.1999999999998</v>
+        <v>1269.7</v>
       </c>
       <c r="Q25">
-        <v>135.1</v>
+        <v>184.4</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>6812</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>8171.3</v>
+        <v>4088.9</v>
       </c>
       <c r="U25">
-        <v>1581.3</v>
+        <v>664.2</v>
       </c>
       <c r="V25">
-        <v>368.2</v>
+        <v>266.8</v>
       </c>
       <c r="W25">
-        <v>-115.7</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>53</v>
+        <v>-3.3</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-233</v>
+        <v>13.9</v>
       </c>
       <c r="AA25">
-        <v>241.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>226.5</v>
+        <v>156.1</v>
       </c>
       <c r="D26">
-        <v>1194.7</v>
+        <v>884.1</v>
       </c>
       <c r="E26">
-        <v>1217.0999999999999</v>
+        <v>804.9</v>
       </c>
       <c r="F26">
-        <v>478.4</v>
+        <v>383.2</v>
       </c>
       <c r="G26">
-        <v>17207.2</v>
+        <v>3709</v>
       </c>
       <c r="H26">
-        <v>25734.3</v>
+        <v>12228.5</v>
       </c>
       <c r="I26">
-        <v>274.3</v>
+        <v>168.5</v>
       </c>
       <c r="J26">
-        <v>2102.4</v>
+        <v>979</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1466.7</v>
+        <v>3365.4</v>
       </c>
       <c r="O26">
-        <v>17838.8</v>
+        <v>4559.8999999999996</v>
       </c>
       <c r="P26">
-        <v>2102.4</v>
+        <v>1279</v>
       </c>
       <c r="Q26">
-        <v>-253.3</v>
+        <v>120.9</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>6790</v>
+        <v>5574</v>
       </c>
       <c r="T26">
-        <v>7895.5</v>
+        <v>7668.6</v>
       </c>
       <c r="U26">
-        <v>1328</v>
+        <v>778.9</v>
       </c>
       <c r="V26">
-        <v>-410.5</v>
+        <v>224.3</v>
       </c>
       <c r="W26">
-        <v>-114.1</v>
+        <v>-63.3</v>
       </c>
       <c r="X26">
-        <v>451.3</v>
+        <v>-19.3</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-192.4</v>
+        <v>11.2</v>
       </c>
       <c r="AA26">
-        <v>226.5</v>
+        <v>156.1</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>212</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="D27">
-        <v>1192.5999999999999</v>
+        <v>900.2</v>
       </c>
       <c r="E27">
-        <v>1475.7</v>
+        <v>1538</v>
       </c>
       <c r="F27">
-        <v>377.9</v>
+        <v>383.5</v>
       </c>
       <c r="G27">
-        <v>18027.2</v>
+        <v>4156.5</v>
       </c>
       <c r="H27">
-        <v>26598.9</v>
+        <v>9948.7999999999993</v>
       </c>
       <c r="I27">
-        <v>671.7</v>
+        <v>1765.3</v>
       </c>
       <c r="J27">
-        <v>2093.6</v>
+        <v>1294.0999999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-9.3000000000000007</v>
+        <v>-300</v>
       </c>
       <c r="N27">
-        <v>1157.2</v>
+        <v>3814.3</v>
       </c>
       <c r="O27">
-        <v>18558</v>
+        <v>5571.9</v>
       </c>
       <c r="P27">
-        <v>2093.6</v>
+        <v>1294.0999999999999</v>
       </c>
       <c r="Q27">
-        <v>-137.5</v>
+        <v>-14.4</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>6847</v>
+        <v>5432</v>
       </c>
       <c r="T27">
-        <v>8040.9</v>
+        <v>4376.8999999999996</v>
       </c>
       <c r="U27">
-        <v>1397</v>
+        <v>779</v>
       </c>
       <c r="V27">
-        <v>126.5</v>
+        <v>3.2</v>
       </c>
       <c r="W27">
-        <v>-114.8</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-223.7</v>
+        <v>-129.19999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-16.7</v>
+        <v>117.8</v>
       </c>
       <c r="AA27">
-        <v>212</v>
+        <v>155.19999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>239.6</v>
+        <v>175.5</v>
       </c>
       <c r="D28">
-        <v>1254.4000000000001</v>
+        <v>979</v>
       </c>
       <c r="E28">
-        <v>1551.2</v>
+        <v>1328.3</v>
       </c>
       <c r="F28">
-        <v>440</v>
+        <v>427.1</v>
       </c>
       <c r="G28">
-        <v>19632.3</v>
+        <v>4115.6000000000004</v>
       </c>
       <c r="H28">
-        <v>28248.5</v>
+        <v>10048.700000000001</v>
       </c>
       <c r="I28">
-        <v>686.3</v>
+        <v>1580.1</v>
       </c>
       <c r="J28">
-        <v>2074.8000000000002</v>
+        <v>1142.8</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1263.4000000000001</v>
+        <v>3757.9</v>
       </c>
       <c r="O28">
-        <v>19746.2</v>
+        <v>5366</v>
       </c>
       <c r="P28">
-        <v>2074.8000000000002</v>
+        <v>1142.8</v>
       </c>
       <c r="Q28">
-        <v>41.5</v>
+        <v>27.3</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>6888</v>
+        <v>5392</v>
       </c>
       <c r="T28">
-        <v>8502.2999999999993</v>
+        <v>4682.7</v>
       </c>
       <c r="U28">
-        <v>1646.1</v>
+        <v>812</v>
       </c>
       <c r="V28">
-        <v>256.7</v>
+        <v>277.3</v>
       </c>
       <c r="W28">
-        <v>-118.9</v>
+        <v>-86.4</v>
       </c>
       <c r="X28">
-        <v>-364.2</v>
+        <v>-219</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>136.30000000000001</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="AA28">
-        <v>239.6</v>
+        <v>175.5</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>267.5</v>
+        <v>167</v>
       </c>
       <c r="D29">
-        <v>1337.7</v>
+        <v>976.6</v>
       </c>
       <c r="E29">
-        <v>1378.9</v>
+        <v>1479.6</v>
       </c>
       <c r="F29">
-        <v>480.9</v>
+        <v>427.7</v>
       </c>
       <c r="G29">
-        <v>21297.3</v>
+        <v>4601.1000000000004</v>
       </c>
       <c r="H29">
-        <v>30372.5</v>
+        <v>10667.3</v>
       </c>
       <c r="I29">
-        <v>835.2</v>
+        <v>1811.1</v>
       </c>
       <c r="J29">
-        <v>2075.3000000000002</v>
+        <v>1143.2</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1510.4</v>
+        <v>4046.5</v>
       </c>
       <c r="O29">
-        <v>21514.1</v>
+        <v>5662.3</v>
       </c>
       <c r="P29">
-        <v>2075.3000000000002</v>
+        <v>1143.2</v>
       </c>
       <c r="Q29">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>6994</v>
+        <v>5390</v>
       </c>
       <c r="T29">
-        <v>8858.4</v>
+        <v>5005</v>
       </c>
       <c r="U29">
-        <v>1716.3</v>
+        <v>1102.4000000000001</v>
       </c>
       <c r="V29">
-        <v>389.8</v>
+        <v>338.3</v>
       </c>
       <c r="W29">
-        <v>-119</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>367.1</v>
+        <v>-51.6</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-240.4</v>
+        <v>-5.8</v>
       </c>
       <c r="AA29">
-        <v>267.5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>408.2</v>
+        <v>175.9</v>
       </c>
       <c r="D30">
-        <v>1375.6</v>
+        <v>1023.1</v>
       </c>
       <c r="E30">
-        <v>1416.3</v>
+        <v>978.5</v>
       </c>
       <c r="F30">
-        <v>490.5</v>
+        <v>451.9</v>
       </c>
       <c r="G30">
-        <v>22321</v>
+        <v>4168.6000000000004</v>
       </c>
       <c r="H30">
-        <v>31668.799999999999</v>
+        <v>12925.2</v>
       </c>
       <c r="I30">
-        <v>320.10000000000002</v>
+        <v>235.4</v>
       </c>
       <c r="J30">
-        <v>2075.8000000000002</v>
+        <v>1276.4000000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1591.8</v>
+        <v>3640.9</v>
       </c>
       <c r="O30">
-        <v>22470</v>
+        <v>5213.3999999999996</v>
       </c>
       <c r="P30">
-        <v>2075.8000000000002</v>
+        <v>1276.4000000000001</v>
       </c>
       <c r="Q30">
-        <v>315.5</v>
+        <v>-156</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7030</v>
+        <v>5475</v>
       </c>
       <c r="T30">
-        <v>9198.7999999999993</v>
+        <v>7711.8</v>
       </c>
       <c r="U30">
-        <v>2006.4</v>
+        <v>915.8</v>
       </c>
       <c r="V30">
-        <v>384.8</v>
+        <v>294.89999999999998</v>
       </c>
       <c r="W30">
-        <v>-118.9</v>
+        <v>-68.599999999999994</v>
       </c>
       <c r="X30">
-        <v>389.8</v>
+        <v>-341</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-442.7</v>
+        <v>-45.1</v>
       </c>
       <c r="AA30">
-        <v>408.2</v>
+        <v>175.9</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>253.9</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="D31">
-        <v>1355.8</v>
+        <v>910.4</v>
       </c>
       <c r="E31">
-        <v>1432.6</v>
+        <v>1146.3</v>
       </c>
       <c r="F31">
-        <v>453.3</v>
+        <v>390.5</v>
       </c>
       <c r="G31">
-        <v>22221.7</v>
+        <v>4136.1000000000004</v>
       </c>
       <c r="H31">
-        <v>31619.1</v>
+        <v>12881.3</v>
       </c>
       <c r="I31">
-        <v>755.5</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>2076.4</v>
+        <v>1537</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1192.4000000000001</v>
+        <v>3368.1</v>
       </c>
       <c r="O31">
-        <v>22148.1</v>
+        <v>5230.3</v>
       </c>
       <c r="P31">
-        <v>2076.4</v>
+        <v>1537</v>
       </c>
       <c r="Q31">
-        <v>-395.4</v>
+        <v>-113.5</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>7134</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>9471</v>
+        <v>7651</v>
       </c>
       <c r="U31">
-        <v>1861.5</v>
+        <v>802.3</v>
       </c>
       <c r="V31">
-        <v>-52.2</v>
+        <v>-134.4</v>
       </c>
       <c r="W31">
-        <v>-119.6</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-44.6</v>
+        <v>137</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-277.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AA31">
-        <v>253.9</v>
+        <v>155.19999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>245.1</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="D32">
-        <v>1360.6</v>
+        <v>935.6</v>
       </c>
       <c r="E32">
-        <v>1535.5</v>
+        <v>960.7</v>
       </c>
       <c r="F32">
-        <v>473.9</v>
+        <v>407.8</v>
       </c>
       <c r="G32">
-        <v>21759.1</v>
+        <v>3784.9</v>
       </c>
       <c r="H32">
-        <v>32459.1</v>
+        <v>12249.7</v>
       </c>
       <c r="I32">
-        <v>755.3</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>2955.8</v>
+        <v>1337</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1265.8</v>
+        <v>3082.3</v>
       </c>
       <c r="O32">
-        <v>23025.9</v>
+        <v>4596.6000000000004</v>
       </c>
       <c r="P32">
-        <v>2955.8</v>
+        <v>1337</v>
       </c>
       <c r="Q32">
-        <v>-288.39999999999998</v>
+        <v>-157.5</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>7315</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>9433.2000000000007</v>
+        <v>7653.1</v>
       </c>
       <c r="U32">
-        <v>1480.5</v>
+        <v>644.79999999999995</v>
       </c>
       <c r="V32">
-        <v>449</v>
+        <v>202.6</v>
       </c>
       <c r="W32">
-        <v>-124.4</v>
+        <v>-129.6</v>
       </c>
       <c r="X32">
-        <v>839.5</v>
+        <v>-388.4</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-24.8</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="AA32">
-        <v>245.1</v>
+        <v>162.80000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>269.60000000000002</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="D33">
-        <v>1341.8</v>
+        <v>827.2</v>
       </c>
       <c r="E33">
-        <v>1409.1</v>
+        <v>783.3</v>
       </c>
       <c r="F33">
-        <v>449.4</v>
+        <v>342.2</v>
       </c>
       <c r="G33">
-        <v>21873.9</v>
+        <v>3411.5</v>
       </c>
       <c r="H33">
-        <v>32503.8</v>
+        <v>11499.5</v>
       </c>
       <c r="I33">
-        <v>799.9</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2814.6</v>
+        <v>1322</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1416.9</v>
+        <v>2670.2</v>
       </c>
       <c r="O33">
-        <v>22761.8</v>
+        <v>4183.2</v>
       </c>
       <c r="P33">
-        <v>2814.6</v>
+        <v>1322</v>
       </c>
       <c r="Q33">
-        <v>80.400000000000006</v>
+        <v>95.8</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>7410</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>9742</v>
+        <v>7316.3</v>
       </c>
       <c r="U33">
-        <v>1631.5</v>
+        <v>740.6</v>
       </c>
       <c r="V33">
-        <v>265.3</v>
+        <v>269.8</v>
       </c>
       <c r="W33">
-        <v>-124.3</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="X33">
-        <v>789.2</v>
+        <v>-185</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-843.3</v>
+        <v>69.2</v>
       </c>
       <c r="AA33">
-        <v>269.60000000000002</v>
+        <v>131.80000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>114.2</v>
+        <v>31.9</v>
       </c>
       <c r="D34">
-        <v>1255.9000000000001</v>
+        <v>634.4</v>
       </c>
       <c r="E34">
-        <v>795.3</v>
+        <v>543</v>
       </c>
       <c r="F34">
-        <v>430.8</v>
+        <v>235.8</v>
       </c>
       <c r="G34">
-        <v>20465</v>
+        <v>2374</v>
       </c>
       <c r="H34">
-        <v>30978.400000000001</v>
+        <v>9756.9</v>
       </c>
       <c r="I34">
-        <v>284.3</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="J34">
-        <v>2408.8000000000002</v>
+        <v>862</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1733.7</v>
+        <v>2103.4</v>
       </c>
       <c r="O34">
-        <v>21646</v>
+        <v>3160.7</v>
       </c>
       <c r="P34">
-        <v>2408.8000000000002</v>
+        <v>1159.2</v>
       </c>
       <c r="Q34">
-        <v>-108.9</v>
+        <v>-155.4</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>7459</v>
+        <v>5325</v>
       </c>
       <c r="T34">
-        <v>9332.4</v>
+        <v>6596.2</v>
       </c>
       <c r="U34">
-        <v>1147.7</v>
+        <v>585.20000000000005</v>
       </c>
       <c r="V34">
-        <v>166.7</v>
+        <v>187.5</v>
       </c>
       <c r="W34">
-        <v>-122.3</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="X34">
-        <v>-44.1</v>
+        <v>-230</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-117.8</v>
+        <v>10</v>
       </c>
       <c r="AA34">
-        <v>114.2</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>177.7</v>
+        <v>30.7</v>
       </c>
       <c r="D35">
-        <v>1214.5999999999999</v>
+        <v>548.6</v>
       </c>
       <c r="E35">
-        <v>1073.3</v>
+        <v>669.1</v>
       </c>
       <c r="F35">
-        <v>358.1</v>
+        <v>169.6</v>
       </c>
       <c r="G35">
-        <v>21459.3</v>
+        <v>2150.5</v>
       </c>
       <c r="H35">
-        <v>32206.6</v>
+        <v>9305.7000000000007</v>
       </c>
       <c r="I35">
-        <v>941</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>2515.6999999999998</v>
+        <v>850</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="N35">
-        <v>1341</v>
+        <v>1900.4</v>
       </c>
       <c r="O35">
-        <v>22746.1</v>
+        <v>2942.7</v>
       </c>
       <c r="P35">
-        <v>2765.5</v>
+        <v>1151.7</v>
       </c>
       <c r="Q35">
-        <v>-537.1</v>
+        <v>-252.1</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>7663</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>9460.5</v>
+        <v>6363</v>
       </c>
       <c r="U35">
-        <v>1017.1</v>
+        <v>333.1</v>
       </c>
       <c r="V35">
-        <v>-120.4</v>
+        <v>-180</v>
       </c>
       <c r="W35">
-        <v>-120.1</v>
+        <v>-38.9</v>
       </c>
       <c r="X35">
-        <v>-87</v>
+        <v>-61.6</v>
       </c>
       <c r="Y35">
-        <v>249.8</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-354.7</v>
+        <v>2.4</v>
       </c>
       <c r="AA35">
-        <v>177.7</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>40.1</v>
+        <v>75.7</v>
       </c>
       <c r="D36">
-        <v>1439.4</v>
+        <v>625.1</v>
       </c>
       <c r="E36">
-        <v>974</v>
+        <v>800.9</v>
       </c>
       <c r="F36">
-        <v>450.8</v>
+        <v>234.8</v>
       </c>
       <c r="G36">
-        <v>20902.900000000001</v>
+        <v>3056</v>
       </c>
       <c r="H36">
-        <v>38501.4</v>
+        <v>10577.6</v>
       </c>
       <c r="I36">
-        <v>1470.8</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>2120.5</v>
+        <v>745.7</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2297.6</v>
+        <v>2408.1999999999998</v>
       </c>
       <c r="O36">
-        <v>23805.3</v>
+        <v>3374.8</v>
       </c>
       <c r="P36">
-        <v>2499.6</v>
+        <v>1039.9000000000001</v>
       </c>
       <c r="Q36">
-        <v>167</v>
+        <v>484.6</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>8902</v>
+        <v>5084</v>
       </c>
       <c r="T36">
-        <v>14696.1</v>
+        <v>7202.8</v>
       </c>
       <c r="U36">
-        <v>1199.4000000000001</v>
+        <v>817.7</v>
       </c>
       <c r="V36">
-        <v>467.8</v>
+        <v>177.2</v>
       </c>
       <c r="W36">
-        <v>-125.4</v>
+        <v>-41.3</v>
       </c>
       <c r="X36">
-        <v>-89</v>
+        <v>285.8</v>
       </c>
       <c r="Y36">
-        <v>379.1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-525.70000000000005</v>
+        <v>12.3</v>
       </c>
       <c r="AA36">
-        <v>40.1</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>231.5</v>
+        <v>105.2</v>
       </c>
       <c r="D37">
-        <v>1720.6</v>
+        <v>705.8</v>
       </c>
       <c r="E37">
-        <v>1024.9000000000001</v>
+        <v>805.7</v>
       </c>
       <c r="F37">
-        <v>598.29999999999995</v>
+        <v>288.39999999999998</v>
       </c>
       <c r="G37">
-        <v>20437.2</v>
+        <v>3311.8</v>
       </c>
       <c r="H37">
-        <v>37891.4</v>
+        <v>10949.6</v>
       </c>
       <c r="I37">
-        <v>946.7</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>2296.6</v>
+        <v>745.7</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2395.9</v>
+        <v>2552.6999999999998</v>
       </c>
       <c r="O37">
-        <v>23531.8</v>
+        <v>3525.4</v>
       </c>
       <c r="P37">
-        <v>2668</v>
+        <v>1039.9000000000001</v>
       </c>
       <c r="Q37">
-        <v>99</v>
+        <v>106.1</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>8835</v>
+        <v>4908</v>
       </c>
       <c r="T37">
-        <v>14359.6</v>
+        <v>7424.2</v>
       </c>
       <c r="U37">
-        <v>1048.5999999999999</v>
+        <v>923.8</v>
       </c>
       <c r="V37">
-        <v>321.89999999999998</v>
+        <v>164.2</v>
       </c>
       <c r="W37">
-        <v>-207.2</v>
+        <v>-44</v>
       </c>
       <c r="X37">
-        <v>35.799999999999997</v>
+        <v>-20.8</v>
       </c>
       <c r="Y37">
-        <v>351.6</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-142</v>
+        <v>-37.6</v>
       </c>
       <c r="AA37">
-        <v>231.5</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>239</v>
+        <v>110.9</v>
       </c>
       <c r="D38">
-        <v>1742.8</v>
+        <v>747.8</v>
       </c>
       <c r="E38">
-        <v>1018.3</v>
+        <v>672.4</v>
       </c>
       <c r="F38">
-        <v>619</v>
+        <v>290.3</v>
       </c>
       <c r="G38">
-        <v>21712</v>
+        <v>3121</v>
       </c>
       <c r="H38">
-        <v>39420.300000000003</v>
+        <v>10909.6</v>
       </c>
       <c r="I38">
-        <v>414.6</v>
+        <v>148.1</v>
       </c>
       <c r="J38">
-        <v>2080.3000000000002</v>
+        <v>745.7</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2569.9</v>
+        <v>2298.4</v>
       </c>
       <c r="O38">
-        <v>24718.5</v>
+        <v>3288.8</v>
       </c>
       <c r="P38">
-        <v>2445.1</v>
+        <v>745.7</v>
       </c>
       <c r="Q38">
-        <v>166.9</v>
+        <v>-161.80000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>8821</v>
+        <v>4890</v>
       </c>
       <c r="T38">
-        <v>14701.8</v>
+        <v>7620.8</v>
       </c>
       <c r="U38">
-        <v>1049</v>
+        <v>762</v>
       </c>
       <c r="V38">
-        <v>447.3</v>
+        <v>201.3</v>
       </c>
       <c r="W38">
-        <v>-200</v>
+        <v>-44.7</v>
       </c>
       <c r="X38">
-        <v>341.5</v>
+        <v>-304.10000000000002</v>
       </c>
       <c r="Y38">
-        <v>364.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-595.20000000000005</v>
+        <v>-12.6</v>
       </c>
       <c r="AA38">
-        <v>239</v>
+        <v>110.9</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>140.69999999999999</v>
+        <v>95</v>
       </c>
       <c r="D39">
-        <v>1598.9</v>
+        <v>719.1</v>
       </c>
       <c r="E39">
-        <v>914.5</v>
+        <v>1061.9000000000001</v>
       </c>
       <c r="F39">
-        <v>531.5</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="G39">
-        <v>19442.900000000001</v>
+        <v>3645.3</v>
       </c>
       <c r="H39">
-        <v>37010.699999999997</v>
+        <v>16791.5</v>
       </c>
       <c r="I39">
-        <v>1211.3</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>2588.8000000000002</v>
+        <v>745.7</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2120.6999999999998</v>
+        <v>2701.1</v>
       </c>
       <c r="O39">
-        <v>22891.8</v>
+        <v>8790.6</v>
       </c>
       <c r="P39">
-        <v>2941.9</v>
+        <v>745.7</v>
       </c>
       <c r="Q39">
-        <v>-471.7</v>
+        <v>-165</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>8757</v>
+        <v>4902</v>
       </c>
       <c r="T39">
-        <v>14118.9</v>
+        <v>8000.9</v>
       </c>
       <c r="U39">
-        <v>940.5</v>
+        <v>597</v>
       </c>
       <c r="V39">
-        <v>-77</v>
+        <v>-177</v>
       </c>
       <c r="W39">
-        <v>-200.1</v>
+        <v>-44.8</v>
       </c>
       <c r="X39">
-        <v>96.3</v>
+        <v>-109.3</v>
       </c>
       <c r="Y39">
-        <v>293.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-382.7</v>
+        <v>149.6</v>
       </c>
       <c r="AA39">
-        <v>140.69999999999999</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>99.7</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D40">
-        <v>1419</v>
+        <v>787</v>
       </c>
       <c r="E40">
-        <v>830.2</v>
+        <v>1011.2</v>
       </c>
       <c r="F40">
-        <v>392.1</v>
+        <v>288.2</v>
       </c>
       <c r="G40">
-        <v>17986.900000000001</v>
+        <v>3658</v>
       </c>
       <c r="H40">
-        <v>35579.1</v>
+        <v>18903.900000000001</v>
       </c>
       <c r="I40">
-        <v>1127.8</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>2407</v>
+        <v>1395.7</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2143.8000000000002</v>
+        <v>2775</v>
       </c>
       <c r="O40">
-        <v>21408.6</v>
+        <v>10083.799999999999</v>
       </c>
       <c r="P40">
-        <v>2763.9</v>
+        <v>1395.7</v>
       </c>
       <c r="Q40">
-        <v>41.7</v>
+        <v>-41.4</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>8717</v>
+        <v>5421</v>
       </c>
       <c r="T40">
-        <v>14170.5</v>
+        <v>8820.1</v>
       </c>
       <c r="U40">
-        <v>987.1</v>
+        <v>555.6</v>
       </c>
       <c r="V40">
-        <v>337.9</v>
+        <v>113.6</v>
       </c>
       <c r="W40">
-        <v>-132.80000000000001</v>
+        <v>-48.9</v>
       </c>
       <c r="X40">
-        <v>-25</v>
+        <v>543.6</v>
       </c>
       <c r="Y40">
-        <v>310.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-284.39999999999998</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AA40">
-        <v>99.7</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>250.9</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="D41">
-        <v>1497.6</v>
+        <v>953.1</v>
       </c>
       <c r="E41">
-        <v>979.6</v>
+        <v>1532.2</v>
       </c>
       <c r="F41">
-        <v>447.3</v>
+        <v>357.3</v>
       </c>
       <c r="G41">
-        <v>18304.599999999999</v>
+        <v>4461.2</v>
       </c>
       <c r="H41">
-        <v>36037.5</v>
+        <v>19941.7</v>
       </c>
       <c r="I41">
-        <v>1086.3</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>2172</v>
+        <v>1394.2</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2214.1</v>
+        <v>3551.2</v>
       </c>
       <c r="O41">
-        <v>21458.7</v>
+        <v>11095.5</v>
       </c>
       <c r="P41">
-        <v>2507</v>
+        <v>1394.2</v>
       </c>
       <c r="Q41">
-        <v>49.4</v>
+        <v>108.5</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>8750</v>
+        <v>5532</v>
       </c>
       <c r="T41">
-        <v>14578.8</v>
+        <v>8846.2000000000007</v>
       </c>
       <c r="U41">
-        <v>1066.5999999999999</v>
+        <v>664.1</v>
       </c>
       <c r="V41">
-        <v>401.8</v>
+        <v>438.9</v>
       </c>
       <c r="W41">
-        <v>-130.6</v>
+        <v>-52.6</v>
       </c>
       <c r="X41">
-        <v>-301.60000000000002</v>
+        <v>-264.8</v>
       </c>
       <c r="Y41">
-        <v>311.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-86.4</v>
+        <v>-50.7</v>
       </c>
       <c r="AA41">
-        <v>250.9</v>
+        <v>154.69999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>175.2</v>
+      </c>
+      <c r="D42">
+        <v>1028.5</v>
+      </c>
+      <c r="E42">
+        <v>938.1</v>
+      </c>
+      <c r="F42">
+        <v>400.2</v>
+      </c>
+      <c r="G42">
+        <v>4274.5</v>
+      </c>
+      <c r="H42">
+        <v>20444.099999999999</v>
+      </c>
+      <c r="I42">
+        <v>302.5</v>
+      </c>
+      <c r="J42">
+        <v>1315.7</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3264.5</v>
+      </c>
+      <c r="O42">
+        <v>11083.2</v>
+      </c>
+      <c r="P42">
+        <v>1315.7</v>
+      </c>
+      <c r="Q42">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>5617</v>
+      </c>
+      <c r="T42">
+        <v>9360.9</v>
+      </c>
+      <c r="U42">
+        <v>740.5</v>
+      </c>
+      <c r="V42">
+        <v>3.7</v>
+      </c>
+      <c r="W42">
+        <v>-51.6</v>
+      </c>
+      <c r="X42">
+        <v>-235.4</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>389.6</v>
+      </c>
+      <c r="AA42">
+        <v>175.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>177.5</v>
+      </c>
+      <c r="D43">
+        <v>1027.3</v>
+      </c>
+      <c r="E43">
+        <v>1304.5</v>
+      </c>
+      <c r="F43">
+        <v>396.9</v>
+      </c>
+      <c r="G43">
+        <v>4528.8</v>
+      </c>
+      <c r="H43">
+        <v>21138.6</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1332.7</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3423.1</v>
+      </c>
+      <c r="O43">
+        <v>11725.4</v>
+      </c>
+      <c r="P43">
+        <v>1332.7</v>
+      </c>
+      <c r="Q43">
+        <v>-268.60000000000002</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>6191</v>
+      </c>
+      <c r="T43">
+        <v>9413.2000000000007</v>
+      </c>
+      <c r="U43">
+        <v>471.9</v>
+      </c>
+      <c r="V43">
+        <v>-105.1</v>
+      </c>
+      <c r="W43">
+        <v>-51.6</v>
+      </c>
+      <c r="X43">
+        <v>-208.8</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>74.2</v>
+      </c>
+      <c r="AA43">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>183</v>
+      </c>
+      <c r="D44">
+        <v>1070</v>
+      </c>
+      <c r="E44">
+        <v>1139.3</v>
+      </c>
+      <c r="F44">
+        <v>409.9</v>
+      </c>
+      <c r="G44">
+        <v>4458.7</v>
+      </c>
+      <c r="H44">
+        <v>20915.599999999999</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1368.6</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3364.6</v>
+      </c>
+      <c r="O44">
+        <v>11717.8</v>
+      </c>
+      <c r="P44">
+        <v>1583.7</v>
+      </c>
+      <c r="Q44">
+        <v>149.6</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>6189</v>
+      </c>
+      <c r="T44">
+        <v>9197.7999999999993</v>
+      </c>
+      <c r="U44">
+        <v>621.5</v>
+      </c>
+      <c r="V44">
+        <v>251.1</v>
+      </c>
+      <c r="W44">
+        <v>-56.9</v>
+      </c>
+      <c r="X44">
+        <v>-300.7</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>216.7</v>
+      </c>
+      <c r="AA44">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>166.9</v>
+      </c>
+      <c r="D45">
+        <v>997.8</v>
+      </c>
+      <c r="E45">
+        <v>1037</v>
+      </c>
+      <c r="F45">
+        <v>377.9</v>
+      </c>
+      <c r="G45">
+        <v>3982.4</v>
+      </c>
+      <c r="H45">
+        <v>19737.8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1174.5999999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3113.2</v>
+      </c>
+      <c r="O45">
+        <v>10770.3</v>
+      </c>
+      <c r="P45">
+        <v>1389.7</v>
+      </c>
+      <c r="Q45">
+        <v>135.5</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>6192</v>
+      </c>
+      <c r="T45">
+        <v>8967.5</v>
+      </c>
+      <c r="U45">
+        <v>757</v>
+      </c>
+      <c r="V45">
+        <v>496</v>
+      </c>
+      <c r="W45">
+        <v>-56.5</v>
+      </c>
+      <c r="X45">
+        <v>-465.8</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>166.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>202.3</v>
+      </c>
+      <c r="D46">
+        <v>997.1</v>
+      </c>
+      <c r="E46">
+        <v>868.8</v>
+      </c>
+      <c r="F46">
+        <v>201.9</v>
+      </c>
+      <c r="G46">
+        <v>3834.1</v>
+      </c>
+      <c r="H46">
+        <v>19347</v>
+      </c>
+      <c r="I46">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="J46">
+        <v>1069.5999999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2974.4</v>
+      </c>
+      <c r="O46">
+        <v>10209.4</v>
+      </c>
+      <c r="P46">
+        <v>1284.7</v>
+      </c>
+      <c r="Q46">
+        <v>-29.6</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>6162</v>
+      </c>
+      <c r="T46">
+        <v>9137.6</v>
+      </c>
+      <c r="U46">
+        <v>727.4</v>
+      </c>
+      <c r="V46">
+        <v>322.8</v>
+      </c>
+      <c r="W46">
+        <v>-55.9</v>
+      </c>
+      <c r="X46">
+        <v>-346.8</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>52.1</v>
+      </c>
+      <c r="AA46">
+        <v>202.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>193.9</v>
+      </c>
+      <c r="D47">
+        <v>1008</v>
+      </c>
+      <c r="E47">
+        <v>1165.7</v>
+      </c>
+      <c r="F47">
+        <v>389.1</v>
+      </c>
+      <c r="G47">
+        <v>4014.4</v>
+      </c>
+      <c r="H47">
+        <v>19329.400000000001</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>777.1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3374.5</v>
+      </c>
+      <c r="O47">
+        <v>10195.4</v>
+      </c>
+      <c r="P47">
+        <v>1325.7</v>
+      </c>
+      <c r="Q47">
+        <v>-135.1</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>6153</v>
+      </c>
+      <c r="T47">
+        <v>9134</v>
+      </c>
+      <c r="U47">
+        <v>592.29999999999995</v>
+      </c>
+      <c r="V47">
+        <v>-158.30000000000001</v>
+      </c>
+      <c r="W47">
+        <v>-55.7</v>
+      </c>
+      <c r="X47">
+        <v>179</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-141.80000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>193.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>153.9</v>
+      </c>
+      <c r="D48">
+        <v>981.8</v>
+      </c>
+      <c r="E48">
+        <v>885.5</v>
+      </c>
+      <c r="F48">
+        <v>377.9</v>
+      </c>
+      <c r="G48">
+        <v>3673</v>
+      </c>
+      <c r="H48">
+        <v>18612.900000000001</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1008.1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2724.7</v>
+      </c>
+      <c r="O48">
+        <v>9494.1</v>
+      </c>
+      <c r="P48">
+        <v>1341.6</v>
+      </c>
+      <c r="Q48">
+        <v>126.1</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>6141</v>
+      </c>
+      <c r="T48">
+        <v>9118.7999999999993</v>
+      </c>
+      <c r="U48">
+        <v>718.4</v>
+      </c>
+      <c r="V48">
+        <v>405.5</v>
+      </c>
+      <c r="W48">
+        <v>-78</v>
+      </c>
+      <c r="X48">
+        <v>-252.1</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-2.9</v>
+      </c>
+      <c r="AA48">
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>170.6</v>
+      </c>
+      <c r="D49">
+        <v>1013.9</v>
+      </c>
+      <c r="E49">
+        <v>1002.1</v>
+      </c>
+      <c r="F49">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="G49">
+        <v>4160.7</v>
+      </c>
+      <c r="H49">
+        <v>17861</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>951.6</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3184.3</v>
+      </c>
+      <c r="O49">
+        <v>8663.6</v>
+      </c>
+      <c r="P49">
+        <v>1285.0999999999999</v>
+      </c>
+      <c r="Q49">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>6101</v>
+      </c>
+      <c r="T49">
+        <v>9197.4</v>
+      </c>
+      <c r="U49">
+        <v>880.1</v>
+      </c>
+      <c r="V49">
+        <v>70.5</v>
+      </c>
+      <c r="W49">
+        <v>-77.8</v>
+      </c>
+      <c r="X49">
+        <v>-144.30000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>237.2</v>
+      </c>
+      <c r="AA49">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="D50">
+        <v>1046.7</v>
+      </c>
+      <c r="E50">
+        <v>999.5</v>
+      </c>
+      <c r="F50">
+        <v>417.2</v>
+      </c>
+      <c r="G50">
+        <v>8261</v>
+      </c>
+      <c r="H50">
+        <v>17492.400000000001</v>
+      </c>
+      <c r="I50">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="J50">
+        <v>1186</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1236.2</v>
+      </c>
+      <c r="O50">
+        <v>8443.4</v>
+      </c>
+      <c r="P50">
+        <v>1186</v>
+      </c>
+      <c r="Q50">
+        <v>-44.6</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>6128</v>
+      </c>
+      <c r="T50">
+        <v>9049</v>
+      </c>
+      <c r="U50">
+        <v>835.5</v>
+      </c>
+      <c r="V50">
+        <v>501.6</v>
+      </c>
+      <c r="W50">
+        <v>-77.5</v>
+      </c>
+      <c r="X50">
+        <v>-428.5</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-55.4</v>
+      </c>
+      <c r="AA50">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>222.2</v>
+      </c>
+      <c r="D51">
+        <v>1112.2</v>
+      </c>
+      <c r="E51">
+        <v>1458.9</v>
+      </c>
+      <c r="F51">
+        <v>360.5</v>
+      </c>
+      <c r="G51">
+        <v>4903.5</v>
+      </c>
+      <c r="H51">
+        <v>18534.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1514.5</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3287.6</v>
+      </c>
+      <c r="O51">
+        <v>9695.2999999999993</v>
+      </c>
+      <c r="P51">
+        <v>1514.5</v>
+      </c>
+      <c r="Q51">
+        <v>49.2</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>6132</v>
+      </c>
+      <c r="T51">
+        <v>8839.2000000000007</v>
+      </c>
+      <c r="U51">
+        <v>884.7</v>
+      </c>
+      <c r="V51">
+        <v>-484.6</v>
+      </c>
+      <c r="W51">
+        <v>-77.2</v>
+      </c>
+      <c r="X51">
+        <v>418.8</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>164.5</v>
+      </c>
+      <c r="AA51">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>202.6</v>
+      </c>
+      <c r="D52">
+        <v>1135.5</v>
+      </c>
+      <c r="E52">
+        <v>1516.3</v>
+      </c>
+      <c r="F52">
+        <v>376.8</v>
+      </c>
+      <c r="G52">
+        <v>5018.7</v>
+      </c>
+      <c r="H52">
+        <v>18138.599999999999</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1445.6</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3429.7</v>
+      </c>
+      <c r="O52">
+        <v>9384.6</v>
+      </c>
+      <c r="P52">
+        <v>1651.6</v>
+      </c>
+      <c r="Q52">
+        <v>31.5</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>5818</v>
+      </c>
+      <c r="T52">
+        <v>8754</v>
+      </c>
+      <c r="U52">
+        <v>916.2</v>
+      </c>
+      <c r="V52">
+        <v>740.2</v>
+      </c>
+      <c r="W52">
+        <v>-101.2</v>
+      </c>
+      <c r="X52">
+        <v>-479.6</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-201.4</v>
+      </c>
+      <c r="AA52">
+        <v>202.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>228.1</v>
+      </c>
+      <c r="D53">
+        <v>1171.8</v>
+      </c>
+      <c r="E53">
+        <v>1478.7</v>
+      </c>
+      <c r="F53">
+        <v>388.7</v>
+      </c>
+      <c r="G53">
+        <v>8165.2</v>
+      </c>
+      <c r="H53">
+        <v>18763.5</v>
+      </c>
+      <c r="I53">
+        <v>660.3</v>
+      </c>
+      <c r="J53">
+        <v>1387.6</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3919.6</v>
+      </c>
+      <c r="O53">
+        <v>9644.1</v>
+      </c>
+      <c r="P53">
+        <v>1387.6</v>
+      </c>
+      <c r="Q53">
+        <v>258.3</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>5864</v>
+      </c>
+      <c r="T53">
+        <v>9119.4</v>
+      </c>
+      <c r="U53">
+        <v>1174.5</v>
+      </c>
+      <c r="V53">
+        <v>334.3</v>
+      </c>
+      <c r="W53">
+        <v>-100.8</v>
+      </c>
+      <c r="X53">
+        <v>-174.7</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>86.2</v>
+      </c>
+      <c r="AA53">
+        <v>228.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1435.8</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>9955.5</v>
+      </c>
+      <c r="H54">
+        <v>19270.5</v>
+      </c>
+      <c r="I54">
+        <v>334.6</v>
+      </c>
+      <c r="J54">
+        <v>1588.6</v>
+      </c>
+      <c r="K54">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1439.5</v>
+      </c>
+      <c r="O54">
+        <v>10293.200000000001</v>
+      </c>
+      <c r="P54">
+        <v>1624.3</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>5932</v>
+      </c>
+      <c r="T54">
+        <v>8977.2999999999993</v>
+      </c>
+      <c r="U54">
+        <v>1343.9</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>187.8</v>
+      </c>
+      <c r="D55">
+        <v>1269.5</v>
+      </c>
+      <c r="E55">
+        <v>2053.3000000000002</v>
+      </c>
+      <c r="F55">
+        <v>432.3</v>
+      </c>
+      <c r="G55">
+        <v>10902</v>
+      </c>
+      <c r="H55">
+        <v>20346.3</v>
+      </c>
+      <c r="I55">
+        <v>734</v>
+      </c>
+      <c r="J55">
+        <v>1588.7</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1125.3</v>
+      </c>
+      <c r="O55">
+        <v>11338.9</v>
+      </c>
+      <c r="P55">
+        <v>1588.7</v>
+      </c>
+      <c r="Q55">
+        <v>-352.5</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>6005</v>
+      </c>
+      <c r="T55">
+        <v>9007.4</v>
+      </c>
+      <c r="U55">
+        <v>991.1</v>
+      </c>
+      <c r="V55">
+        <v>-219.2</v>
+      </c>
+      <c r="W55">
+        <v>-98</v>
+      </c>
+      <c r="X55">
+        <v>408.3</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-523.1</v>
+      </c>
+      <c r="AA55">
+        <v>187.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>274.5</v>
+      </c>
+      <c r="D56">
+        <v>1289.9000000000001</v>
+      </c>
+      <c r="E56">
+        <v>1753.3</v>
+      </c>
+      <c r="F56">
+        <v>461.1</v>
+      </c>
+      <c r="G56">
+        <v>10303.200000000001</v>
+      </c>
+      <c r="H56">
+        <v>19899.5</v>
+      </c>
+      <c r="I56">
+        <v>755.6</v>
+      </c>
+      <c r="J56">
+        <v>1588.9</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1218.8</v>
+      </c>
+      <c r="O56">
+        <v>10421.6</v>
+      </c>
+      <c r="P56">
+        <v>1588.9</v>
+      </c>
+      <c r="Q56">
+        <v>217.3</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>6070</v>
+      </c>
+      <c r="T56">
+        <v>9477.9</v>
+      </c>
+      <c r="U56">
+        <v>1209.7</v>
+      </c>
+      <c r="V56">
+        <v>769.5</v>
+      </c>
+      <c r="W56">
+        <v>-109.1</v>
+      </c>
+      <c r="X56">
+        <v>-139.5</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-457.7</v>
+      </c>
+      <c r="AA56">
+        <v>274.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>256</v>
+      </c>
+      <c r="D57">
+        <v>1311</v>
+      </c>
+      <c r="E57">
+        <v>1542.3</v>
+      </c>
+      <c r="F57">
+        <v>470.6</v>
+      </c>
+      <c r="G57">
+        <v>10742.5</v>
+      </c>
+      <c r="H57">
+        <v>20081</v>
+      </c>
+      <c r="I57">
+        <v>766.4</v>
+      </c>
+      <c r="J57">
+        <v>1589.1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1306.5</v>
+      </c>
+      <c r="O57">
+        <v>10784.4</v>
+      </c>
+      <c r="P57">
+        <v>1589.1</v>
+      </c>
+      <c r="Q57">
+        <v>156.6</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>6155</v>
+      </c>
+      <c r="T57">
+        <v>9296.6</v>
+      </c>
+      <c r="U57">
+        <v>1370.7</v>
+      </c>
+      <c r="V57">
+        <v>467.1</v>
+      </c>
+      <c r="W57">
+        <v>-108.6</v>
+      </c>
+      <c r="X57">
+        <v>207.3</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-442.9</v>
+      </c>
+      <c r="AA57">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>269.8</v>
+      </c>
+      <c r="D58">
+        <v>1276.7</v>
+      </c>
+      <c r="E58">
+        <v>1284.2</v>
+      </c>
+      <c r="F58">
+        <v>548.6</v>
+      </c>
+      <c r="G58">
+        <v>11260.7</v>
+      </c>
+      <c r="H58">
+        <v>20450</v>
+      </c>
+      <c r="I58">
+        <v>343.5</v>
+      </c>
+      <c r="J58">
+        <v>1576.8</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1424.6</v>
+      </c>
+      <c r="O58">
+        <v>11164.7</v>
+      </c>
+      <c r="P58">
+        <v>1576.8</v>
+      </c>
+      <c r="Q58">
+        <v>161.6</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>6264</v>
+      </c>
+      <c r="T58">
+        <v>9285.2999999999993</v>
+      </c>
+      <c r="U58">
+        <v>1525.6</v>
+      </c>
+      <c r="V58">
+        <v>183</v>
+      </c>
+      <c r="W58">
+        <v>-108.3</v>
+      </c>
+      <c r="X58">
+        <v>386.4</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-331.1</v>
+      </c>
+      <c r="AA58">
+        <v>269.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="D59">
+        <v>1291.5999999999999</v>
+      </c>
+      <c r="E59">
+        <v>1930.5</v>
+      </c>
+      <c r="F59">
+        <v>454.7</v>
+      </c>
+      <c r="G59">
+        <v>12874.3</v>
+      </c>
+      <c r="H59">
+        <v>21961.200000000001</v>
+      </c>
+      <c r="I59">
+        <v>824.5</v>
+      </c>
+      <c r="J59">
+        <v>1600.6</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1196.2</v>
+      </c>
+      <c r="O59">
+        <v>12920.8</v>
+      </c>
+      <c r="P59">
+        <v>1600.6</v>
+      </c>
+      <c r="Q59">
+        <v>-294.5</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>6360</v>
+      </c>
+      <c r="T59">
+        <v>9040.4</v>
+      </c>
+      <c r="U59">
+        <v>1239.9000000000001</v>
+      </c>
+      <c r="V59">
+        <v>-56.3</v>
+      </c>
+      <c r="W59">
+        <v>-108.1</v>
+      </c>
+      <c r="X59">
+        <v>178.9</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-343.5</v>
+      </c>
+      <c r="AA59">
+        <v>259.60000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>257.3</v>
+      </c>
+      <c r="D60">
+        <v>1318.1</v>
+      </c>
+      <c r="E60">
+        <v>1654.9</v>
+      </c>
+      <c r="F60">
+        <v>476.4</v>
+      </c>
+      <c r="G60">
+        <v>13684.2</v>
+      </c>
+      <c r="H60">
+        <v>22898.3</v>
+      </c>
+      <c r="I60">
+        <v>881.3</v>
+      </c>
+      <c r="J60">
+        <v>1597.5</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1356.1</v>
+      </c>
+      <c r="O60">
+        <v>13644.1</v>
+      </c>
+      <c r="P60">
+        <v>1597.5</v>
+      </c>
+      <c r="Q60">
+        <v>246</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>6431</v>
+      </c>
+      <c r="T60">
+        <v>9254.2000000000007</v>
+      </c>
+      <c r="U60">
+        <v>1482</v>
+      </c>
+      <c r="V60">
+        <v>514.79999999999995</v>
+      </c>
+      <c r="W60">
+        <v>-116.5</v>
+      </c>
+      <c r="X60">
+        <v>-282.89999999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-3.9</v>
+      </c>
+      <c r="AA60">
+        <v>257.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>249.3</v>
+      </c>
+      <c r="D61">
+        <v>1273.5</v>
+      </c>
+      <c r="E61">
+        <v>1515.2</v>
+      </c>
+      <c r="F61">
+        <v>464.6</v>
+      </c>
+      <c r="G61">
+        <v>15965.3</v>
+      </c>
+      <c r="H61">
+        <v>24962.2</v>
+      </c>
+      <c r="I61">
+        <v>882.4</v>
+      </c>
+      <c r="J61">
+        <v>1689.3</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1453.6</v>
+      </c>
+      <c r="O61">
+        <v>15930</v>
+      </c>
+      <c r="P61">
+        <v>1689.3</v>
+      </c>
+      <c r="Q61">
+        <v>125</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>6430</v>
+      </c>
+      <c r="T61">
+        <v>9032.2000000000007</v>
+      </c>
+      <c r="U61">
+        <v>1605.2</v>
+      </c>
+      <c r="V61">
+        <v>97.1</v>
+      </c>
+      <c r="W61">
+        <v>-116.2</v>
+      </c>
+      <c r="X61">
+        <v>157.4</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-54</v>
+      </c>
+      <c r="AA61">
+        <v>249.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>201.9</v>
+      </c>
+      <c r="D62">
+        <v>1239.7</v>
+      </c>
+      <c r="E62">
+        <v>1101.3</v>
+      </c>
+      <c r="F62">
+        <v>493.3</v>
+      </c>
+      <c r="G62">
+        <v>16127.6</v>
+      </c>
+      <c r="H62">
+        <v>25073.200000000001</v>
+      </c>
+      <c r="I62">
+        <v>302.60000000000002</v>
+      </c>
+      <c r="J62">
+        <v>2072.8000000000002</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1524.4</v>
+      </c>
+      <c r="O62">
+        <v>16210.2</v>
+      </c>
+      <c r="P62">
+        <v>2072.8000000000002</v>
+      </c>
+      <c r="Q62">
+        <v>260.7</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6490</v>
+      </c>
+      <c r="T62">
+        <v>8863</v>
+      </c>
+      <c r="U62">
+        <v>1873.3</v>
+      </c>
+      <c r="V62">
+        <v>497.9</v>
+      </c>
+      <c r="W62">
+        <v>-113.7</v>
+      </c>
+      <c r="X62">
+        <v>-30.1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-138.9</v>
+      </c>
+      <c r="AA62">
+        <v>201.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>161</v>
+      </c>
+      <c r="D63">
+        <v>1148.7</v>
+      </c>
+      <c r="E63">
+        <v>1471.2</v>
+      </c>
+      <c r="F63">
+        <v>386.3</v>
+      </c>
+      <c r="G63">
+        <v>13954.2</v>
+      </c>
+      <c r="H63">
+        <v>22658.2</v>
+      </c>
+      <c r="I63">
+        <v>670.1</v>
+      </c>
+      <c r="J63">
+        <v>2073.1999999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1085.9000000000001</v>
+      </c>
+      <c r="O63">
+        <v>14288.4</v>
+      </c>
+      <c r="P63">
+        <v>2073.1999999999998</v>
+      </c>
+      <c r="Q63">
+        <v>-396.9</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>6552</v>
+      </c>
+      <c r="T63">
+        <v>8369.7999999999993</v>
+      </c>
+      <c r="U63">
+        <v>1454.5</v>
+      </c>
+      <c r="V63">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="W63">
+        <v>-113</v>
+      </c>
+      <c r="X63">
+        <v>-249.5</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-47.9</v>
+      </c>
+      <c r="AA63">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>225.5</v>
+      </c>
+      <c r="D64">
+        <v>1189.4000000000001</v>
+      </c>
+      <c r="E64">
+        <v>1719.1</v>
+      </c>
+      <c r="F64">
+        <v>413.5</v>
+      </c>
+      <c r="G64">
+        <v>14802.3</v>
+      </c>
+      <c r="H64">
+        <v>23502.799999999999</v>
+      </c>
+      <c r="I64">
+        <v>833.8</v>
+      </c>
+      <c r="J64">
+        <v>2072.6999999999998</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1340.5</v>
+      </c>
+      <c r="O64">
+        <v>15460.1</v>
+      </c>
+      <c r="P64">
+        <v>2072.6999999999998</v>
+      </c>
+      <c r="Q64">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>6796</v>
+      </c>
+      <c r="T64">
+        <v>8042.7</v>
+      </c>
+      <c r="U64">
+        <v>1446.2</v>
+      </c>
+      <c r="V64">
+        <v>245.8</v>
+      </c>
+      <c r="W64">
+        <v>-117.6</v>
+      </c>
+      <c r="X64">
+        <v>173.3</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-247.7</v>
+      </c>
+      <c r="AA64">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>241.2</v>
+      </c>
+      <c r="D65">
+        <v>1201.5999999999999</v>
+      </c>
+      <c r="E65">
+        <v>1200</v>
+      </c>
+      <c r="F65">
+        <v>423.3</v>
+      </c>
+      <c r="G65">
+        <v>15519.5</v>
+      </c>
+      <c r="H65">
+        <v>24137.7</v>
+      </c>
+      <c r="I65">
+        <v>771.7</v>
+      </c>
+      <c r="J65">
+        <v>2073.1999999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1374</v>
+      </c>
+      <c r="O65">
+        <v>15966.4</v>
+      </c>
+      <c r="P65">
+        <v>2073.1999999999998</v>
+      </c>
+      <c r="Q65">
+        <v>135.1</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>6812</v>
+      </c>
+      <c r="T65">
+        <v>8171.3</v>
+      </c>
+      <c r="U65">
+        <v>1581.3</v>
+      </c>
+      <c r="V65">
+        <v>368.2</v>
+      </c>
+      <c r="W65">
+        <v>-115.7</v>
+      </c>
+      <c r="X65">
+        <v>53</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-233</v>
+      </c>
+      <c r="AA65">
+        <v>241.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>226.5</v>
+      </c>
+      <c r="D66">
+        <v>1194.7</v>
+      </c>
+      <c r="E66">
+        <v>1217.0999999999999</v>
+      </c>
+      <c r="F66">
+        <v>478.4</v>
+      </c>
+      <c r="G66">
+        <v>17207.2</v>
+      </c>
+      <c r="H66">
+        <v>25734.3</v>
+      </c>
+      <c r="I66">
+        <v>274.3</v>
+      </c>
+      <c r="J66">
+        <v>2102.4</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1466.7</v>
+      </c>
+      <c r="O66">
+        <v>17838.8</v>
+      </c>
+      <c r="P66">
+        <v>2102.4</v>
+      </c>
+      <c r="Q66">
+        <v>-253.3</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>6790</v>
+      </c>
+      <c r="T66">
+        <v>7895.5</v>
+      </c>
+      <c r="U66">
+        <v>1328</v>
+      </c>
+      <c r="V66">
+        <v>-410.5</v>
+      </c>
+      <c r="W66">
+        <v>-114.1</v>
+      </c>
+      <c r="X66">
+        <v>451.3</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-192.4</v>
+      </c>
+      <c r="AA66">
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>212</v>
+      </c>
+      <c r="D67">
+        <v>1192.5999999999999</v>
+      </c>
+      <c r="E67">
+        <v>1475.7</v>
+      </c>
+      <c r="F67">
+        <v>377.9</v>
+      </c>
+      <c r="G67">
+        <v>18027.2</v>
+      </c>
+      <c r="H67">
+        <v>26598.9</v>
+      </c>
+      <c r="I67">
+        <v>671.7</v>
+      </c>
+      <c r="J67">
+        <v>2093.6</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="N67">
+        <v>1157.2</v>
+      </c>
+      <c r="O67">
+        <v>18558</v>
+      </c>
+      <c r="P67">
+        <v>2093.6</v>
+      </c>
+      <c r="Q67">
+        <v>-137.5</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>6847</v>
+      </c>
+      <c r="T67">
+        <v>8040.9</v>
+      </c>
+      <c r="U67">
+        <v>1397</v>
+      </c>
+      <c r="V67">
+        <v>126.5</v>
+      </c>
+      <c r="W67">
+        <v>-114.8</v>
+      </c>
+      <c r="X67">
+        <v>-223.7</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-16.7</v>
+      </c>
+      <c r="AA67">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>239.6</v>
+      </c>
+      <c r="D68">
+        <v>1254.4000000000001</v>
+      </c>
+      <c r="E68">
+        <v>1551.2</v>
+      </c>
+      <c r="F68">
+        <v>440</v>
+      </c>
+      <c r="G68">
+        <v>19632.3</v>
+      </c>
+      <c r="H68">
+        <v>28248.5</v>
+      </c>
+      <c r="I68">
+        <v>686.3</v>
+      </c>
+      <c r="J68">
+        <v>2074.8000000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1263.4000000000001</v>
+      </c>
+      <c r="O68">
+        <v>19746.2</v>
+      </c>
+      <c r="P68">
+        <v>2074.8000000000002</v>
+      </c>
+      <c r="Q68">
+        <v>41.5</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>6888</v>
+      </c>
+      <c r="T68">
+        <v>8502.2999999999993</v>
+      </c>
+      <c r="U68">
+        <v>1646.1</v>
+      </c>
+      <c r="V68">
+        <v>256.7</v>
+      </c>
+      <c r="W68">
+        <v>-118.9</v>
+      </c>
+      <c r="X68">
+        <v>-364.2</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>239.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>267.5</v>
+      </c>
+      <c r="D69">
+        <v>1337.7</v>
+      </c>
+      <c r="E69">
+        <v>1378.9</v>
+      </c>
+      <c r="F69">
+        <v>480.9</v>
+      </c>
+      <c r="G69">
+        <v>21297.3</v>
+      </c>
+      <c r="H69">
+        <v>30372.5</v>
+      </c>
+      <c r="I69">
+        <v>835.2</v>
+      </c>
+      <c r="J69">
+        <v>2075.3000000000002</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1510.4</v>
+      </c>
+      <c r="O69">
+        <v>21514.1</v>
+      </c>
+      <c r="P69">
+        <v>2075.3000000000002</v>
+      </c>
+      <c r="Q69">
+        <v>228</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>6994</v>
+      </c>
+      <c r="T69">
+        <v>8858.4</v>
+      </c>
+      <c r="U69">
+        <v>1716.3</v>
+      </c>
+      <c r="V69">
+        <v>389.8</v>
+      </c>
+      <c r="W69">
+        <v>-119</v>
+      </c>
+      <c r="X69">
+        <v>367.1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-240.4</v>
+      </c>
+      <c r="AA69">
+        <v>267.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>408.2</v>
+      </c>
+      <c r="D70">
+        <v>1375.6</v>
+      </c>
+      <c r="E70">
+        <v>1416.3</v>
+      </c>
+      <c r="F70">
+        <v>490.5</v>
+      </c>
+      <c r="G70">
+        <v>22321</v>
+      </c>
+      <c r="H70">
+        <v>31668.799999999999</v>
+      </c>
+      <c r="I70">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="J70">
+        <v>2075.8000000000002</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1591.8</v>
+      </c>
+      <c r="O70">
+        <v>22470</v>
+      </c>
+      <c r="P70">
+        <v>2075.8000000000002</v>
+      </c>
+      <c r="Q70">
+        <v>315.5</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7030</v>
+      </c>
+      <c r="T70">
+        <v>9198.7999999999993</v>
+      </c>
+      <c r="U70">
+        <v>2006.4</v>
+      </c>
+      <c r="V70">
+        <v>384.8</v>
+      </c>
+      <c r="W70">
+        <v>-118.9</v>
+      </c>
+      <c r="X70">
+        <v>389.8</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-442.7</v>
+      </c>
+      <c r="AA70">
+        <v>408.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>253.9</v>
+      </c>
+      <c r="D71">
+        <v>1355.8</v>
+      </c>
+      <c r="E71">
+        <v>1432.6</v>
+      </c>
+      <c r="F71">
+        <v>453.3</v>
+      </c>
+      <c r="G71">
+        <v>22221.7</v>
+      </c>
+      <c r="H71">
+        <v>31619.1</v>
+      </c>
+      <c r="I71">
+        <v>755.5</v>
+      </c>
+      <c r="J71">
+        <v>2076.4</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1192.4000000000001</v>
+      </c>
+      <c r="O71">
+        <v>22148.1</v>
+      </c>
+      <c r="P71">
+        <v>2076.4</v>
+      </c>
+      <c r="Q71">
+        <v>-395.4</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>7134</v>
+      </c>
+      <c r="T71">
+        <v>9471</v>
+      </c>
+      <c r="U71">
+        <v>1861.5</v>
+      </c>
+      <c r="V71">
+        <v>-52.2</v>
+      </c>
+      <c r="W71">
+        <v>-119.6</v>
+      </c>
+      <c r="X71">
+        <v>-44.6</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-277.2</v>
+      </c>
+      <c r="AA71">
+        <v>253.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>245.1</v>
+      </c>
+      <c r="D72">
+        <v>1360.6</v>
+      </c>
+      <c r="E72">
+        <v>1535.5</v>
+      </c>
+      <c r="F72">
+        <v>473.9</v>
+      </c>
+      <c r="G72">
+        <v>21759.1</v>
+      </c>
+      <c r="H72">
+        <v>32459.1</v>
+      </c>
+      <c r="I72">
+        <v>755.3</v>
+      </c>
+      <c r="J72">
+        <v>2955.8</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1265.8</v>
+      </c>
+      <c r="O72">
+        <v>23025.9</v>
+      </c>
+      <c r="P72">
+        <v>2955.8</v>
+      </c>
+      <c r="Q72">
+        <v>-288.39999999999998</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>7315</v>
+      </c>
+      <c r="T72">
+        <v>9433.2000000000007</v>
+      </c>
+      <c r="U72">
+        <v>1480.5</v>
+      </c>
+      <c r="V72">
+        <v>449</v>
+      </c>
+      <c r="W72">
+        <v>-124.4</v>
+      </c>
+      <c r="X72">
+        <v>839.5</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-24.8</v>
+      </c>
+      <c r="AA72">
+        <v>245.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>269.60000000000002</v>
+      </c>
+      <c r="D73">
+        <v>1341.8</v>
+      </c>
+      <c r="E73">
+        <v>1409.1</v>
+      </c>
+      <c r="F73">
+        <v>449.4</v>
+      </c>
+      <c r="G73">
+        <v>21873.9</v>
+      </c>
+      <c r="H73">
+        <v>32503.8</v>
+      </c>
+      <c r="I73">
+        <v>799.9</v>
+      </c>
+      <c r="J73">
+        <v>2814.6</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1416.9</v>
+      </c>
+      <c r="O73">
+        <v>22761.8</v>
+      </c>
+      <c r="P73">
+        <v>2814.6</v>
+      </c>
+      <c r="Q73">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>7410</v>
+      </c>
+      <c r="T73">
+        <v>9742</v>
+      </c>
+      <c r="U73">
+        <v>1631.5</v>
+      </c>
+      <c r="V73">
+        <v>265.3</v>
+      </c>
+      <c r="W73">
+        <v>-124.3</v>
+      </c>
+      <c r="X73">
+        <v>789.2</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-843.3</v>
+      </c>
+      <c r="AA73">
+        <v>269.60000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>114.2</v>
+      </c>
+      <c r="D74">
+        <v>1255.9000000000001</v>
+      </c>
+      <c r="E74">
+        <v>795.3</v>
+      </c>
+      <c r="F74">
+        <v>430.8</v>
+      </c>
+      <c r="G74">
+        <v>20465</v>
+      </c>
+      <c r="H74">
+        <v>30978.400000000001</v>
+      </c>
+      <c r="I74">
+        <v>284.3</v>
+      </c>
+      <c r="J74">
+        <v>2408.8000000000002</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1733.7</v>
+      </c>
+      <c r="O74">
+        <v>21646</v>
+      </c>
+      <c r="P74">
+        <v>2408.8000000000002</v>
+      </c>
+      <c r="Q74">
+        <v>-108.9</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7459</v>
+      </c>
+      <c r="T74">
+        <v>9332.4</v>
+      </c>
+      <c r="U74">
+        <v>1147.7</v>
+      </c>
+      <c r="V74">
+        <v>166.7</v>
+      </c>
+      <c r="W74">
+        <v>-122.3</v>
+      </c>
+      <c r="X74">
+        <v>-44.1</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-117.8</v>
+      </c>
+      <c r="AA74">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>177.7</v>
+      </c>
+      <c r="D75">
+        <v>1214.5999999999999</v>
+      </c>
+      <c r="E75">
+        <v>1073.3</v>
+      </c>
+      <c r="F75">
+        <v>358.1</v>
+      </c>
+      <c r="G75">
+        <v>21459.3</v>
+      </c>
+      <c r="H75">
+        <v>32206.6</v>
+      </c>
+      <c r="I75">
+        <v>941</v>
+      </c>
+      <c r="J75">
+        <v>2515.6999999999998</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1341</v>
+      </c>
+      <c r="O75">
+        <v>22746.1</v>
+      </c>
+      <c r="P75">
+        <v>2765.5</v>
+      </c>
+      <c r="Q75">
+        <v>-537.1</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>7663</v>
+      </c>
+      <c r="T75">
+        <v>9460.5</v>
+      </c>
+      <c r="U75">
+        <v>1017.1</v>
+      </c>
+      <c r="V75">
+        <v>-120.4</v>
+      </c>
+      <c r="W75">
+        <v>-120.1</v>
+      </c>
+      <c r="X75">
+        <v>-87</v>
+      </c>
+      <c r="Y75">
+        <v>249.8</v>
+      </c>
+      <c r="Z75">
+        <v>-354.7</v>
+      </c>
+      <c r="AA75">
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>40.1</v>
+      </c>
+      <c r="D76">
+        <v>1439.4</v>
+      </c>
+      <c r="E76">
+        <v>974</v>
+      </c>
+      <c r="F76">
+        <v>450.8</v>
+      </c>
+      <c r="G76">
+        <v>20902.900000000001</v>
+      </c>
+      <c r="H76">
+        <v>38501.4</v>
+      </c>
+      <c r="I76">
+        <v>1470.8</v>
+      </c>
+      <c r="J76">
+        <v>2120.5</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2297.6</v>
+      </c>
+      <c r="O76">
+        <v>23805.3</v>
+      </c>
+      <c r="P76">
+        <v>2499.6</v>
+      </c>
+      <c r="Q76">
+        <v>167</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>8902</v>
+      </c>
+      <c r="T76">
+        <v>14696.1</v>
+      </c>
+      <c r="U76">
+        <v>1199.4000000000001</v>
+      </c>
+      <c r="V76">
+        <v>467.8</v>
+      </c>
+      <c r="W76">
+        <v>-125.4</v>
+      </c>
+      <c r="X76">
+        <v>-89</v>
+      </c>
+      <c r="Y76">
+        <v>379.1</v>
+      </c>
+      <c r="Z76">
+        <v>-525.70000000000005</v>
+      </c>
+      <c r="AA76">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>231.5</v>
+      </c>
+      <c r="D77">
+        <v>1720.6</v>
+      </c>
+      <c r="E77">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="F77">
+        <v>598.29999999999995</v>
+      </c>
+      <c r="G77">
+        <v>20437.2</v>
+      </c>
+      <c r="H77">
+        <v>37891.4</v>
+      </c>
+      <c r="I77">
+        <v>946.7</v>
+      </c>
+      <c r="J77">
+        <v>2296.6</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2395.9</v>
+      </c>
+      <c r="O77">
+        <v>23531.8</v>
+      </c>
+      <c r="P77">
+        <v>2668</v>
+      </c>
+      <c r="Q77">
+        <v>99</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>8835</v>
+      </c>
+      <c r="T77">
+        <v>14359.6</v>
+      </c>
+      <c r="U77">
+        <v>1048.5999999999999</v>
+      </c>
+      <c r="V77">
+        <v>321.89999999999998</v>
+      </c>
+      <c r="W77">
+        <v>-207.2</v>
+      </c>
+      <c r="X77">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="Y77">
+        <v>351.6</v>
+      </c>
+      <c r="Z77">
+        <v>-142</v>
+      </c>
+      <c r="AA77">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>239</v>
+      </c>
+      <c r="D78">
+        <v>1742.8</v>
+      </c>
+      <c r="E78">
+        <v>1018.3</v>
+      </c>
+      <c r="F78">
+        <v>619</v>
+      </c>
+      <c r="G78">
+        <v>21712</v>
+      </c>
+      <c r="H78">
+        <v>39420.300000000003</v>
+      </c>
+      <c r="I78">
+        <v>414.6</v>
+      </c>
+      <c r="J78">
+        <v>2080.3000000000002</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2569.9</v>
+      </c>
+      <c r="O78">
+        <v>24718.5</v>
+      </c>
+      <c r="P78">
+        <v>2445.1</v>
+      </c>
+      <c r="Q78">
+        <v>166.9</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>8821</v>
+      </c>
+      <c r="T78">
+        <v>14701.8</v>
+      </c>
+      <c r="U78">
+        <v>1049</v>
+      </c>
+      <c r="V78">
+        <v>447.3</v>
+      </c>
+      <c r="W78">
+        <v>-200</v>
+      </c>
+      <c r="X78">
+        <v>341.5</v>
+      </c>
+      <c r="Y78">
+        <v>364.8</v>
+      </c>
+      <c r="Z78">
+        <v>-595.20000000000005</v>
+      </c>
+      <c r="AA78">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="D79">
+        <v>1598.9</v>
+      </c>
+      <c r="E79">
+        <v>914.5</v>
+      </c>
+      <c r="F79">
+        <v>531.5</v>
+      </c>
+      <c r="G79">
+        <v>19442.900000000001</v>
+      </c>
+      <c r="H79">
+        <v>37010.699999999997</v>
+      </c>
+      <c r="I79">
+        <v>1211.3</v>
+      </c>
+      <c r="J79">
+        <v>2588.8000000000002</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2120.6999999999998</v>
+      </c>
+      <c r="O79">
+        <v>22891.8</v>
+      </c>
+      <c r="P79">
+        <v>2941.9</v>
+      </c>
+      <c r="Q79">
+        <v>-471.7</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>8757</v>
+      </c>
+      <c r="T79">
+        <v>14118.9</v>
+      </c>
+      <c r="U79">
+        <v>940.5</v>
+      </c>
+      <c r="V79">
+        <v>-77</v>
+      </c>
+      <c r="W79">
+        <v>-200.1</v>
+      </c>
+      <c r="X79">
+        <v>96.3</v>
+      </c>
+      <c r="Y79">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="Z79">
+        <v>-382.7</v>
+      </c>
+      <c r="AA79">
+        <v>140.69999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>99.7</v>
+      </c>
+      <c r="D80">
+        <v>1419</v>
+      </c>
+      <c r="E80">
+        <v>830.2</v>
+      </c>
+      <c r="F80">
+        <v>392.1</v>
+      </c>
+      <c r="G80">
+        <v>17986.900000000001</v>
+      </c>
+      <c r="H80">
+        <v>35579.1</v>
+      </c>
+      <c r="I80">
+        <v>1127.8</v>
+      </c>
+      <c r="J80">
+        <v>2407</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2143.8000000000002</v>
+      </c>
+      <c r="O80">
+        <v>21408.6</v>
+      </c>
+      <c r="P80">
+        <v>2763.9</v>
+      </c>
+      <c r="Q80">
+        <v>41.7</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>8717</v>
+      </c>
+      <c r="T80">
+        <v>14170.5</v>
+      </c>
+      <c r="U80">
+        <v>987.1</v>
+      </c>
+      <c r="V80">
+        <v>337.9</v>
+      </c>
+      <c r="W80">
+        <v>-132.80000000000001</v>
+      </c>
+      <c r="X80">
+        <v>-25</v>
+      </c>
+      <c r="Y80">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="Z80">
+        <v>-284.39999999999998</v>
+      </c>
+      <c r="AA80">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>250.9</v>
+      </c>
+      <c r="D81">
+        <v>1497.6</v>
+      </c>
+      <c r="E81">
+        <v>979.6</v>
+      </c>
+      <c r="F81">
+        <v>447.3</v>
+      </c>
+      <c r="G81">
+        <v>18304.599999999999</v>
+      </c>
+      <c r="H81">
+        <v>36037.5</v>
+      </c>
+      <c r="I81">
+        <v>1086.3</v>
+      </c>
+      <c r="J81">
+        <v>2172</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2214.1</v>
+      </c>
+      <c r="O81">
+        <v>21458.7</v>
+      </c>
+      <c r="P81">
+        <v>2507</v>
+      </c>
+      <c r="Q81">
+        <v>49.4</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>8750</v>
+      </c>
+      <c r="T81">
+        <v>14578.8</v>
+      </c>
+      <c r="U81">
+        <v>1066.5999999999999</v>
+      </c>
+      <c r="V81">
+        <v>401.8</v>
+      </c>
+      <c r="W81">
+        <v>-130.6</v>
+      </c>
+      <c r="X81">
+        <v>-301.60000000000002</v>
+      </c>
+      <c r="Y81">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="Z81">
+        <v>-86.4</v>
+      </c>
+      <c r="AA81">
+        <v>250.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>270.3</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1630.1</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>850.5</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>507.3</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>18407.3</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>36504.1</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>348.9</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2082.6</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2656.1</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>21483.4</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2401.8000000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>518.70000000000005</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>8512</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>15020.7</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1408.4</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>567.6</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-130.69999999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-55.6</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>238</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>3.4</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>270.3</v>
       </c>
     </row>
